--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE9D41-D1FB-4CD8-B4A3-E79FB83F81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A808916-F20A-4F1F-9451-8F20707F619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="capacitive touch" sheetId="3" r:id="rId3"/>
+    <sheet name="partition table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -74,265 +74,326 @@
     <t>Until first working version</t>
   </si>
   <si>
+    <t>Implement advanced ssd1306 functions</t>
+  </si>
+  <si>
+    <t>ssd1306_contrast(&amp;dev, 0xff);</t>
+  </si>
+  <si>
+    <t>ssd1306_software_scroll(&amp;dev, 1, (dev._pages - 1) );</t>
+  </si>
+  <si>
+    <t>Advanced ssd1306 functions:</t>
+  </si>
+  <si>
+    <t>ssd1306_hardware_scroll(&amp;dev, SCROLL_RIGHT);</t>
+  </si>
+  <si>
+    <t>Consider different ssd1306 driver</t>
+  </si>
+  <si>
+    <t>T0:</t>
+  </si>
+  <si>
+    <t>T5:</t>
+  </si>
+  <si>
+    <t>T6:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1241]   T6:[1380]   T5:[1010]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1245]   T6:[1382]   T5:[1014]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1246]   T6:[1382]   T5:[1014]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1247]   T6:[1382]   T5:[1015]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1247]   T6:[1383]   T5:[1015]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1248]   T6:[1383]   T5:[1015]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 772] L T6:[1165]   T5:[ 586] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 316] L T6:[ 756] T T5:[ 247] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 172] L T6:[ 343] T T5:[ 102] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 177] L T6:[ 285] T T5:[ 116] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 111] L T6:[ 231] T T5:[  64] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 125] L T6:[ 227] T T5:[  64] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  80] L T6:[ 235] T T5:[  47] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  79] L T6:[ 214] T T5:[  43] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 108] L T6:[ 239] T T5:[  71] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  80] L T6:[ 194] T T5:[  43] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 119] L T6:[ 208] T T5:[  67] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  70] L T6:[ 193] T T5:[  46] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  82] L T6:[ 193] T T5:[  51] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  69] L T6:[ 216] T T5:[  53] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  60] L T6:[ 184] T T5:[  33] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 108] L T6:[ 198] T T5:[  69] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  75] L T6:[ 167] T T5:[  42] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  89] L T6:[ 180] T T5:[  61] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  59] L T6:[ 187] T T5:[  40] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  64] L T6:[ 171] T T5:[  38] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  81] L T6:[ 193] T T5:[  54] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  58] L T6:[ 156] T T5:[  30] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  96] L T6:[ 167] T T5:[  68] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  64] L T6:[ 146] T T5:[  42] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[  84] L T6:[ 463] T T5:[  49] R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[ 974] L T6:[1223]   T5:[ 832]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1186]   T6:[1351]   T5:[ 971]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1240]   T6:[1383]   T5:[1004]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1248]   T6:[1390]   T5:[1010]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0:[1254]   T6:[1393]   T5:[1009]   </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Test WiFi</t>
+  </si>
+  <si>
+    <t># Name,   Type, SubType, Offset,  Size, Flags</t>
+  </si>
+  <si>
+    <t>nvs,      data, nvs,     0x9000,  0x5000,</t>
+  </si>
+  <si>
+    <t>otadata,  data, ota,     0xe000,  0x2000,</t>
+  </si>
+  <si>
+    <t>app0,     app,  factory, 0x10000, 0x3E0000,</t>
+  </si>
+  <si>
+    <t>coredump, data, coredump,0x3F0000,0x10000,</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>e000</t>
+  </si>
+  <si>
+    <t>3f0000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>3e0000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Test time sync with timeserver</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V04</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V01</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V02</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V03</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V05</t>
+  </si>
+  <si>
+    <t>Utilize event loop and handlers to connec t to wifi and respond to SNTP sync</t>
+  </si>
+  <si>
     <r>
-      <t>ssd1306_fadeout</t>
+      <t>ssd1306_</t>
     </r>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FFCCCCCC"/>
+        <sz val="11"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(</t>
+      <t>fadeout(&amp;dev);</t>
+    </r>
+  </si>
+  <si>
+    <t>Document essential settings menu_config</t>
+  </si>
+  <si>
+    <t>Dive in to details of partition table (coredump, phy_init…, etc. Who needs what)</t>
+  </si>
+  <si>
+    <t>Initialize wifi</t>
+  </si>
+  <si>
+    <t>Initialize timeserver</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>Timeserver</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>Synched</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Port timer object using </t>
     </r>
     <r>
       <rPr>
-        <sz val="5"/>
-        <color rgb="FFD4D4D4"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&amp;</t>
+      <t>esp_timer_get_time() / 1000;</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>dev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>Implement advanced ssd1306 functions</t>
-  </si>
-  <si>
-    <t>ssd1306_contrast(&amp;dev, 0xff);</t>
-  </si>
-  <si>
-    <t>ssd1306_software_scroll(&amp;dev, 1, (dev._pages - 1) );</t>
-  </si>
-  <si>
-    <t>Advanced ssd1306 functions:</t>
-  </si>
-  <si>
-    <t>ssd1306_hardware_scroll(&amp;dev, SCROLL_RIGHT);</t>
-  </si>
-  <si>
-    <t>Consider different ssd1306 driver</t>
-  </si>
-  <si>
-    <t>T0:</t>
-  </si>
-  <si>
-    <t>T5:</t>
-  </si>
-  <si>
-    <t>T6:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1241]   T6:[1380]   T5:[1010]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1245]   T6:[1382]   T5:[1014]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1246]   T6:[1382]   T5:[1014]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1247]   T6:[1382]   T5:[1015]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1247]   T6:[1383]   T5:[1015]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1248]   T6:[1383]   T5:[1015]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 772] L T6:[1165]   T5:[ 586] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 316] L T6:[ 756] T T5:[ 247] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 172] L T6:[ 343] T T5:[ 102] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 177] L T6:[ 285] T T5:[ 116] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 111] L T6:[ 231] T T5:[  64] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 125] L T6:[ 227] T T5:[  64] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  80] L T6:[ 235] T T5:[  47] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  79] L T6:[ 214] T T5:[  43] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 108] L T6:[ 239] T T5:[  71] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  80] L T6:[ 194] T T5:[  43] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 119] L T6:[ 208] T T5:[  67] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  70] L T6:[ 193] T T5:[  46] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  82] L T6:[ 193] T T5:[  51] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  69] L T6:[ 216] T T5:[  53] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  60] L T6:[ 184] T T5:[  33] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 108] L T6:[ 198] T T5:[  69] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  75] L T6:[ 167] T T5:[  42] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  89] L T6:[ 180] T T5:[  61] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  59] L T6:[ 187] T T5:[  40] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  64] L T6:[ 171] T T5:[  38] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  81] L T6:[ 193] T T5:[  54] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  58] L T6:[ 156] T T5:[  30] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  96] L T6:[ 167] T T5:[  68] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  64] L T6:[ 146] T T5:[  42] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[  84] L T6:[ 463] T T5:[  49] R </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[ 974] L T6:[1223]   T5:[ 832]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1186]   T6:[1351]   T5:[ 971]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1240]   T6:[1383]   T5:[1004]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1248]   T6:[1390]   T5:[1010]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0:[1254]   T6:[1393]   T5:[1009]   </t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Test WiFi</t>
-  </si>
-  <si>
-    <t># Name,   Type, SubType, Offset,  Size, Flags</t>
-  </si>
-  <si>
-    <t>nvs,      data, nvs,     0x9000,  0x5000,</t>
-  </si>
-  <si>
-    <t>otadata,  data, ota,     0xe000,  0x2000,</t>
-  </si>
-  <si>
-    <t>app0,     app,  factory, 0x10000, 0x3E0000,</t>
-  </si>
-  <si>
-    <t>coredump, data, coredump,0x3F0000,0x10000,</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>hex</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>e000</t>
-  </si>
-  <si>
-    <t>3f0000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>3e0000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Test time sync with timeserver</t>
-  </si>
-  <si>
-    <t>Bedclock_IDF_V04</t>
-  </si>
-  <si>
-    <t>Bedclock_IDF_V01</t>
-  </si>
-  <si>
-    <t>Bedclock_IDF_V02</t>
-  </si>
-  <si>
-    <t>Bedclock_IDF_V03</t>
-  </si>
-  <si>
-    <t>Bedclock_IDF_V05</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>dstSleep</t>
+  </si>
+  <si>
+    <t>dstTime</t>
+  </si>
+  <si>
+    <t>dstLightIntensity</t>
+  </si>
+  <si>
+    <t>dstLightColor</t>
+  </si>
+  <si>
+    <t>dstLightDuration</t>
+  </si>
+  <si>
+    <t>dstDisplayIntensity</t>
+  </si>
+  <si>
+    <t>updateDisplay()</t>
+  </si>
+  <si>
+    <t>selectNextItem()</t>
+  </si>
+  <si>
+    <t>selectNextOption()</t>
+  </si>
+  <si>
+    <t>sleep()</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V06</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V07</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,24 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="5"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cascadia Mono Light"/>
       <family val="3"/>
@@ -382,6 +425,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -406,17 +460,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$1</c:f>
+              <c:f>'capacitive touch'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +568,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$2:$O$39</c:f>
+              <c:f>'capacitive touch'!$O$2:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -646,7 +701,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$P$1</c:f>
+              <c:f>'capacitive touch'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,7 +724,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$2:$P$39</c:f>
+              <c:f>'capacitive touch'!$P$2:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -802,7 +857,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$Q$1</c:f>
+              <c:f>'capacitive touch'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -825,7 +880,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Q$2:$Q$39</c:f>
+              <c:f>'capacitive touch'!$Q$2:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2068,41 +2123,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1328125" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="3.265625" customWidth="1"/>
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
-        <f>AVERAGE(A4:A13)</f>
-        <v>0.4</v>
+        <f>AVERAGE(A4:A14)</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A4:A1048576)</f>
-        <v>0.30769230769230771</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2110,10 +2165,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2121,10 +2179,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2132,32 +2193,41 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2165,75 +2235,232 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="G13" t="str">
+        <f>C4&amp;" : "&amp;B4</f>
+        <v>Bedclock_IDF_V01 : Test WS2812 led chain</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G19" si="0">C5&amp;" : "&amp;B5</f>
+        <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bedclock_IDF_V03 : Test capacitive touch sensors</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>Bedclock_IDF_V04 : Test WiFi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bedclock_IDF_V05 : Test time sync with timeserver</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="str">
+        <f>C10&amp;" : "&amp;B10</f>
+        <v>Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
+      </c>
+      <c r="G19" t="str">
+        <f>C11&amp;" : "&amp;B11</f>
+        <v>Bedclock_IDF_V07 : Test FreeRTOS</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="str">
+        <f>C12&amp;" : "&amp;B12</f>
+        <v>Bedclock_IDF_V08 : Port current WS2812 functionality to ESP-IDF</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FA9BA9-5F63-4D61-A1B9-2D13B3B0C4D0}">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2241,12 +2468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CBDAB-00D5-431B-8CF1-C9D570B575C5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q39"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2256,27 +2483,27 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <f>SEARCH(C$1,$A2)</f>
@@ -2329,7 +2556,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="3">SEARCH(C$1,$A3)</f>
@@ -2382,7 +2609,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <f t="shared" si="3"/>
@@ -2435,7 +2662,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <f t="shared" si="3"/>
@@ -2488,7 +2715,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <f t="shared" si="3"/>
@@ -2541,7 +2768,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <f t="shared" si="3"/>
@@ -2594,7 +2821,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
@@ -2647,7 +2874,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
@@ -2700,7 +2927,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
@@ -2753,7 +2980,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
@@ -2806,7 +3033,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
@@ -2859,7 +3086,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
@@ -2912,7 +3139,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
@@ -2965,7 +3192,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
@@ -3018,7 +3245,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
@@ -3071,7 +3298,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
@@ -3124,7 +3351,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
@@ -3177,7 +3404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
@@ -3230,7 +3457,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
@@ -3283,7 +3510,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
@@ -3336,7 +3563,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
@@ -3389,7 +3616,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
@@ -3442,7 +3669,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
@@ -3495,7 +3722,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
@@ -3548,7 +3775,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
@@ -3601,7 +3828,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -3654,7 +3881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -3707,7 +3934,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <f t="shared" si="3"/>
@@ -3760,7 +3987,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <f t="shared" si="3"/>
@@ -3813,7 +4040,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <f t="shared" si="3"/>
@@ -3866,7 +4093,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <f t="shared" si="3"/>
@@ -3919,7 +4146,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
@@ -3972,7 +4199,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
@@ -4025,7 +4252,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
@@ -4078,7 +4305,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
@@ -4131,7 +4358,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
@@ -4184,7 +4411,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
@@ -4237,7 +4464,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
@@ -4294,12 +4521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07230AEC-070D-4D11-9AC7-3E13EFF8C1AE}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -4310,42 +4537,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <f>HEX2DEC(C3)</f>
         <v>36864</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <f>HEX2DEC(F3)</f>
@@ -4354,17 +4581,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D6" si="0">HEX2DEC(C4)</f>
         <v>57344</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G6" si="1">HEX2DEC(F4)</f>
@@ -4373,17 +4600,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -4392,17 +4619,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>4128768</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A808916-F20A-4F1F-9451-8F20707F619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D1DE4-125A-43C7-A855-08017416FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="partition table" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -387,6 +388,18 @@
   </si>
   <si>
     <t>Bedclock_IDF_V08</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V09</t>
+  </si>
+  <si>
+    <t>Internal Espressif SSD1306 driver including LVGL</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>bytes</t>
   </si>
 </sst>
 </file>
@@ -2123,11 +2136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2141,8 +2154,8 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
-        <f>AVERAGE(A4:A14)</f>
-        <v>0.63636363636363635</v>
+        <f>AVERAGE(A4:A15)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2151,7 +2164,7 @@
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A4:A1048576)</f>
-        <v>0.41176470588235292</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2270,10 +2283,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
       </c>
       <c r="G13" t="str">
         <f>C4&amp;" : "&amp;B4</f>
@@ -2285,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G19" si="0">C5&amp;" : "&amp;B5</f>
+        <f t="shared" ref="G14:G17" si="0">C5&amp;" : "&amp;B5</f>
         <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
       </c>
     </row>
@@ -2297,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2309,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -2321,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2333,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="str">
         <f>C10&amp;" : "&amp;B10</f>
@@ -2345,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G19" t="str">
         <f>C11&amp;" : "&amp;B11</f>
@@ -2357,11 +2373,19 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" t="str">
         <f>C12&amp;" : "&amp;B12</f>
         <v>Bedclock_IDF_V08 : Port current WS2812 functionality to ESP-IDF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2372,25 +2396,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FA9BA9-5F63-4D61-A1B9-2D13B3B0C4D0}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>88</v>
       </c>
@@ -2401,7 +2425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -2415,50 +2439,72 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>95</v>
       </c>
       <c r="F16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="L16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="L17">
+        <f>L15*L16</f>
+        <v>5120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="L18">
+        <f>L17/8</f>
+        <v>640</v>
+      </c>
+      <c r="M18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>105</v>
       </c>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D1DE4-125A-43C7-A855-08017416FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126FEEC-B8C6-4A9E-84A2-C36FF5F613F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="capacitive touch" sheetId="3" r:id="rId3"/>
-    <sheet name="partition table" sheetId="4" r:id="rId4"/>
+    <sheet name="display" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="capacitive touch" sheetId="3" r:id="rId4"/>
+    <sheet name="partition table" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="505">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -308,30 +309,6 @@
   </si>
   <si>
     <t>Dive in to details of partition table (coredump, phy_init…, etc. Who needs what)</t>
-  </si>
-  <si>
-    <t>Initialize wifi</t>
-  </si>
-  <si>
-    <t>Initialize timeserver</t>
-  </si>
-  <si>
-    <t>WIFI</t>
-  </si>
-  <si>
-    <t>Timeserver</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>Synched</t>
-  </si>
-  <si>
-    <t>Display</t>
   </si>
   <si>
     <r>
@@ -348,39 +325,6 @@
     </r>
   </si>
   <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>dstSleep</t>
-  </si>
-  <si>
-    <t>dstTime</t>
-  </si>
-  <si>
-    <t>dstLightIntensity</t>
-  </si>
-  <si>
-    <t>dstLightColor</t>
-  </si>
-  <si>
-    <t>dstLightDuration</t>
-  </si>
-  <si>
-    <t>dstDisplayIntensity</t>
-  </si>
-  <si>
-    <t>updateDisplay()</t>
-  </si>
-  <si>
-    <t>selectNextItem()</t>
-  </si>
-  <si>
-    <t>selectNextOption()</t>
-  </si>
-  <si>
-    <t>sleep()</t>
-  </si>
-  <si>
     <t>Bedclock_IDF_V06</t>
   </si>
   <si>
@@ -400,6 +344,1239 @@
   </si>
   <si>
     <t>bytes</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V10</t>
+  </si>
+  <si>
+    <t>Save settings to Non-Volatile Storage</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>text_top</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>screen_offset</t>
+  </si>
+  <si>
+    <t>I (55742) display: _</t>
+  </si>
+  <si>
+    <t>I (55792) display: _</t>
+  </si>
+  <si>
+    <t>I (55842) display: _</t>
+  </si>
+  <si>
+    <t>I (55892) display: _</t>
+  </si>
+  <si>
+    <t>I (55942) display: _</t>
+  </si>
+  <si>
+    <t>I (55992) display: _</t>
+  </si>
+  <si>
+    <t>I (56292) display: .</t>
+  </si>
+  <si>
+    <t>I (56342) display: _</t>
+  </si>
+  <si>
+    <t>I (56392) display: _</t>
+  </si>
+  <si>
+    <t>I (56442) display: _</t>
+  </si>
+  <si>
+    <t>I (56492) display: _</t>
+  </si>
+  <si>
+    <t>I (56542) display: _</t>
+  </si>
+  <si>
+    <t>I (56592) display: _</t>
+  </si>
+  <si>
+    <t>I (56642) display: _</t>
+  </si>
+  <si>
+    <t>I (56692) display: _</t>
+  </si>
+  <si>
+    <t>I (56742) display: _</t>
+  </si>
+  <si>
+    <t>I (56792) display: _</t>
+  </si>
+  <si>
+    <t>I (56842) display: _</t>
+  </si>
+  <si>
+    <t>I (56892) display: _</t>
+  </si>
+  <si>
+    <t>I (56942) display: _</t>
+  </si>
+  <si>
+    <t>I (56992) display: _</t>
+  </si>
+  <si>
+    <t>I (57042) display: _</t>
+  </si>
+  <si>
+    <t>I (57342) display: .</t>
+  </si>
+  <si>
+    <t>I (57392) display: _</t>
+  </si>
+  <si>
+    <t>I (57442) display: _</t>
+  </si>
+  <si>
+    <t>I (57492) display: _</t>
+  </si>
+  <si>
+    <t>I (57542) display: _</t>
+  </si>
+  <si>
+    <t>I (57592) display: _</t>
+  </si>
+  <si>
+    <t>I (57642) display: _</t>
+  </si>
+  <si>
+    <t>I (57692) display: _</t>
+  </si>
+  <si>
+    <t>I (57742) display: _</t>
+  </si>
+  <si>
+    <t>I (57792) display: _</t>
+  </si>
+  <si>
+    <t>I (57842) display: _</t>
+  </si>
+  <si>
+    <t>I (57892) display: _</t>
+  </si>
+  <si>
+    <t>I (57942) display: _</t>
+  </si>
+  <si>
+    <t>I (57992) display: _</t>
+  </si>
+  <si>
+    <t>I (58042) display: _</t>
+  </si>
+  <si>
+    <t>I (58092) display: _</t>
+  </si>
+  <si>
+    <t>I (58392) display: .</t>
+  </si>
+  <si>
+    <t>I (58442) display: _</t>
+  </si>
+  <si>
+    <t>I (58492) display: _</t>
+  </si>
+  <si>
+    <t>I (58542) display: _</t>
+  </si>
+  <si>
+    <t>I (58592) display: _</t>
+  </si>
+  <si>
+    <t>I (58642) display: _</t>
+  </si>
+  <si>
+    <t>I (58692) display: _</t>
+  </si>
+  <si>
+    <t>I (58742) display: _</t>
+  </si>
+  <si>
+    <t>I (58792) display: _</t>
+  </si>
+  <si>
+    <t>I (58842) display: _</t>
+  </si>
+  <si>
+    <t>I (58892) display: _</t>
+  </si>
+  <si>
+    <t>I (58942) display: _</t>
+  </si>
+  <si>
+    <t>I (58992) display: _</t>
+  </si>
+  <si>
+    <t>I (59042) display: _</t>
+  </si>
+  <si>
+    <t>I (59092) display: _</t>
+  </si>
+  <si>
+    <t>I (59142) display: _</t>
+  </si>
+  <si>
+    <t>I (59442) display: .</t>
+  </si>
+  <si>
+    <t>I (59492) display: _</t>
+  </si>
+  <si>
+    <t>I (59542) display: _</t>
+  </si>
+  <si>
+    <t>I (59592) display: _</t>
+  </si>
+  <si>
+    <t>I (59642) display: _</t>
+  </si>
+  <si>
+    <t>I (59692) display: _</t>
+  </si>
+  <si>
+    <t>I (59742) display: _</t>
+  </si>
+  <si>
+    <t>I (59792) display: _</t>
+  </si>
+  <si>
+    <t>I (59842) display: _</t>
+  </si>
+  <si>
+    <t>I (59892) display: _</t>
+  </si>
+  <si>
+    <t>I (59942) display: _</t>
+  </si>
+  <si>
+    <t>I (59992) display: _</t>
+  </si>
+  <si>
+    <t>I (60042) display: _</t>
+  </si>
+  <si>
+    <t>I (60092) display: _</t>
+  </si>
+  <si>
+    <t>I (60142) display: _</t>
+  </si>
+  <si>
+    <t>I (60192) display: _</t>
+  </si>
+  <si>
+    <t>I (60492) display: .</t>
+  </si>
+  <si>
+    <t>I (60542) display: _</t>
+  </si>
+  <si>
+    <t>I (60592) display: _</t>
+  </si>
+  <si>
+    <t>I (60642) display: _</t>
+  </si>
+  <si>
+    <t>I (60692) display: _</t>
+  </si>
+  <si>
+    <t>I (60742) display: _</t>
+  </si>
+  <si>
+    <t>I (60792) display: _</t>
+  </si>
+  <si>
+    <t>I (60842) display: _</t>
+  </si>
+  <si>
+    <t>I (60892) display: _</t>
+  </si>
+  <si>
+    <t>I (60942) display: _</t>
+  </si>
+  <si>
+    <t>I (60992) display: _</t>
+  </si>
+  <si>
+    <t>I (61042) display: _</t>
+  </si>
+  <si>
+    <t>I (61092) display: _</t>
+  </si>
+  <si>
+    <t>I (61142) display: _</t>
+  </si>
+  <si>
+    <t>I (61192) display: _</t>
+  </si>
+  <si>
+    <t>I (61242) display: _</t>
+  </si>
+  <si>
+    <t>I (61542) display: .</t>
+  </si>
+  <si>
+    <t>I (61592) display: _</t>
+  </si>
+  <si>
+    <t>I (61642) display: _</t>
+  </si>
+  <si>
+    <t>I (61692) display: _</t>
+  </si>
+  <si>
+    <t>I (61742) display: _</t>
+  </si>
+  <si>
+    <t>I (61792) display: _</t>
+  </si>
+  <si>
+    <t>I (61842) display: _</t>
+  </si>
+  <si>
+    <t>I (61892) display: _</t>
+  </si>
+  <si>
+    <t>I (61942) display: _</t>
+  </si>
+  <si>
+    <t>I (61992) display: _</t>
+  </si>
+  <si>
+    <t>I (62042) display: _</t>
+  </si>
+  <si>
+    <t>I (62092) display: _</t>
+  </si>
+  <si>
+    <t>I (62142) display: _</t>
+  </si>
+  <si>
+    <t>I (62192) display: _</t>
+  </si>
+  <si>
+    <t>I (62242) display: _</t>
+  </si>
+  <si>
+    <t>I (62292) display: _</t>
+  </si>
+  <si>
+    <t>I (62592) display: .</t>
+  </si>
+  <si>
+    <t>I (62642) display: _</t>
+  </si>
+  <si>
+    <t>I (62692) display: _</t>
+  </si>
+  <si>
+    <t>I (62742) display: _</t>
+  </si>
+  <si>
+    <t>I (62792) display: _</t>
+  </si>
+  <si>
+    <t>I (62842) display: _</t>
+  </si>
+  <si>
+    <t>I (62892) display: _</t>
+  </si>
+  <si>
+    <t>I (62942) display: _</t>
+  </si>
+  <si>
+    <t>I (62992) display: _</t>
+  </si>
+  <si>
+    <t>I (63042) display: _</t>
+  </si>
+  <si>
+    <t>I (63092) display: _</t>
+  </si>
+  <si>
+    <t>I (63142) display: _</t>
+  </si>
+  <si>
+    <t>I (63192) display: _</t>
+  </si>
+  <si>
+    <t>I (63242) display: _</t>
+  </si>
+  <si>
+    <t>I (63292) display: _</t>
+  </si>
+  <si>
+    <t>I (63342) display: _</t>
+  </si>
+  <si>
+    <t>I (63642) display: .</t>
+  </si>
+  <si>
+    <t>I (63692) display: _</t>
+  </si>
+  <si>
+    <t>I (63742) display: _</t>
+  </si>
+  <si>
+    <t>I (63792) display: _</t>
+  </si>
+  <si>
+    <t>I (63842) display: _</t>
+  </si>
+  <si>
+    <t>I (63892) display: _</t>
+  </si>
+  <si>
+    <t>I (63942) display: _</t>
+  </si>
+  <si>
+    <t>I (63992) display: _</t>
+  </si>
+  <si>
+    <t>I (64042) display: _</t>
+  </si>
+  <si>
+    <t>I (64092) display: _</t>
+  </si>
+  <si>
+    <t>I (64142) display: _</t>
+  </si>
+  <si>
+    <t>I (64192) display: _</t>
+  </si>
+  <si>
+    <t>I (64242) display: _</t>
+  </si>
+  <si>
+    <t>I (64292) display: _</t>
+  </si>
+  <si>
+    <t>I (64342) display: _</t>
+  </si>
+  <si>
+    <t>I (64392) display: _</t>
+  </si>
+  <si>
+    <t>I (64692) display: .</t>
+  </si>
+  <si>
+    <t>I (64742) display: _</t>
+  </si>
+  <si>
+    <t>I (64792) display: _</t>
+  </si>
+  <si>
+    <t>I (64842) display: _</t>
+  </si>
+  <si>
+    <t>I (64892) display: _</t>
+  </si>
+  <si>
+    <t>I (64942) display: _</t>
+  </si>
+  <si>
+    <t>I (64992) display: _</t>
+  </si>
+  <si>
+    <t>I (65042) display: _</t>
+  </si>
+  <si>
+    <t>I (65092) display: _</t>
+  </si>
+  <si>
+    <t>I (65142) display: _</t>
+  </si>
+  <si>
+    <t>I (65192) display: _</t>
+  </si>
+  <si>
+    <t>I (65242) display: _</t>
+  </si>
+  <si>
+    <t>I (65292) display: _</t>
+  </si>
+  <si>
+    <t>I (65342) display: _</t>
+  </si>
+  <si>
+    <t>I (65392) display: _</t>
+  </si>
+  <si>
+    <t>I (65442) display: _</t>
+  </si>
+  <si>
+    <t>I (65742) display: .</t>
+  </si>
+  <si>
+    <t>I (65792) display: _</t>
+  </si>
+  <si>
+    <t>I (65842) display: _</t>
+  </si>
+  <si>
+    <t>I (65892) display: _</t>
+  </si>
+  <si>
+    <t>I (65942) display: _</t>
+  </si>
+  <si>
+    <t>I (65992) display: _</t>
+  </si>
+  <si>
+    <t>I (66042) display: _</t>
+  </si>
+  <si>
+    <t>I (66092) display: _</t>
+  </si>
+  <si>
+    <t>I (66142) display: _</t>
+  </si>
+  <si>
+    <t>I (66192) display: _</t>
+  </si>
+  <si>
+    <t>I (66242) display: _</t>
+  </si>
+  <si>
+    <t>I (66292) display: _</t>
+  </si>
+  <si>
+    <t>I (66342) display: _</t>
+  </si>
+  <si>
+    <t>I (66392) display: _</t>
+  </si>
+  <si>
+    <t>I (66442) display: _</t>
+  </si>
+  <si>
+    <t>I (66492) display: _</t>
+  </si>
+  <si>
+    <t>I (66792) display: .</t>
+  </si>
+  <si>
+    <t>I (66842) display: _</t>
+  </si>
+  <si>
+    <t>I (66892) display: _</t>
+  </si>
+  <si>
+    <t>I (66942) display: _</t>
+  </si>
+  <si>
+    <t>I (66992) display: _</t>
+  </si>
+  <si>
+    <t>I (67042) display: _</t>
+  </si>
+  <si>
+    <t>I (67092) display: _</t>
+  </si>
+  <si>
+    <t>I (67142) display: _</t>
+  </si>
+  <si>
+    <t>I (67192) display: _</t>
+  </si>
+  <si>
+    <t>I (67242) display: _</t>
+  </si>
+  <si>
+    <t>I (67292) display: _</t>
+  </si>
+  <si>
+    <t>I (67342) display: _</t>
+  </si>
+  <si>
+    <t>I (67392) display: _</t>
+  </si>
+  <si>
+    <t>I (67442) display: _</t>
+  </si>
+  <si>
+    <t>I (67492) display: _</t>
+  </si>
+  <si>
+    <t>I (67542) display: _</t>
+  </si>
+  <si>
+    <t>I (67842) display: .</t>
+  </si>
+  <si>
+    <t>I (67892) display: _</t>
+  </si>
+  <si>
+    <t>I (67942) display: _</t>
+  </si>
+  <si>
+    <t>I (67992) display: _</t>
+  </si>
+  <si>
+    <t>I (68042) display: _</t>
+  </si>
+  <si>
+    <t>I (68092) display: _</t>
+  </si>
+  <si>
+    <t>I (68142) display: _</t>
+  </si>
+  <si>
+    <t>I (68192) display: _</t>
+  </si>
+  <si>
+    <t>I (68242) display: _</t>
+  </si>
+  <si>
+    <t>I (68292) display: _</t>
+  </si>
+  <si>
+    <t>I (68342) display: _</t>
+  </si>
+  <si>
+    <t>I (68392) display: _</t>
+  </si>
+  <si>
+    <t>I (68442) display: _</t>
+  </si>
+  <si>
+    <t>I (68492) display: _</t>
+  </si>
+  <si>
+    <t>I (68542) display: _</t>
+  </si>
+  <si>
+    <t>I (68592) display: _</t>
+  </si>
+  <si>
+    <t>I (68892) display: .</t>
+  </si>
+  <si>
+    <t>I (68942) display: _</t>
+  </si>
+  <si>
+    <t>I (68992) display: _</t>
+  </si>
+  <si>
+    <t>I (69042) display: _</t>
+  </si>
+  <si>
+    <t>I (69092) display: _</t>
+  </si>
+  <si>
+    <t>I (69142) display: _</t>
+  </si>
+  <si>
+    <t>I (69192) display: _</t>
+  </si>
+  <si>
+    <t>I (69242) display: _</t>
+  </si>
+  <si>
+    <t>I (69292) display: _</t>
+  </si>
+  <si>
+    <t>I (69342) display: _</t>
+  </si>
+  <si>
+    <t>I (69392) display: _</t>
+  </si>
+  <si>
+    <t>I (69442) display: _</t>
+  </si>
+  <si>
+    <t>I (69492) display: _</t>
+  </si>
+  <si>
+    <t>I (69542) display: _</t>
+  </si>
+  <si>
+    <t>I (69592) display: _</t>
+  </si>
+  <si>
+    <t>I (69642) display: _</t>
+  </si>
+  <si>
+    <t>I (69942) display: .</t>
+  </si>
+  <si>
+    <t>I (69992) display: _</t>
+  </si>
+  <si>
+    <t>I (70042) display: _</t>
+  </si>
+  <si>
+    <t>I (70092) display: _</t>
+  </si>
+  <si>
+    <t>I (70142) display: _</t>
+  </si>
+  <si>
+    <t>I (70192) display: _</t>
+  </si>
+  <si>
+    <t>I (70242) display: _</t>
+  </si>
+  <si>
+    <t>I (70292) display: _</t>
+  </si>
+  <si>
+    <t>I (70342) display: _</t>
+  </si>
+  <si>
+    <t>I (70392) display: _</t>
+  </si>
+  <si>
+    <t>I (70442) display: _</t>
+  </si>
+  <si>
+    <t>I (70492) display: _</t>
+  </si>
+  <si>
+    <t>I (70542) display: _</t>
+  </si>
+  <si>
+    <t>I (70592) display: _</t>
+  </si>
+  <si>
+    <t>I (70642) display: _</t>
+  </si>
+  <si>
+    <t>I (70692) display: _</t>
+  </si>
+  <si>
+    <t>I (70992) display: .</t>
+  </si>
+  <si>
+    <t>I (71042) display: _</t>
+  </si>
+  <si>
+    <t>I (71092) display: _</t>
+  </si>
+  <si>
+    <t>I (71142) display: _</t>
+  </si>
+  <si>
+    <t>I (71192) display: _</t>
+  </si>
+  <si>
+    <t>I (71242) display: _</t>
+  </si>
+  <si>
+    <t>I (71292) display: _</t>
+  </si>
+  <si>
+    <t>I (71342) display: _</t>
+  </si>
+  <si>
+    <t>I (71392) display: _</t>
+  </si>
+  <si>
+    <t>I (71442) display: _</t>
+  </si>
+  <si>
+    <t>I (71492) display: _</t>
+  </si>
+  <si>
+    <t>I (71542) display: _</t>
+  </si>
+  <si>
+    <t>I (71592) display: _</t>
+  </si>
+  <si>
+    <t>I (71642) display: _</t>
+  </si>
+  <si>
+    <t>I (71692) display: _</t>
+  </si>
+  <si>
+    <t>I (71742) display: _</t>
+  </si>
+  <si>
+    <t>I (72042) display: .</t>
+  </si>
+  <si>
+    <t>I (72092) display: _</t>
+  </si>
+  <si>
+    <t>I (72142) display: _</t>
+  </si>
+  <si>
+    <t>I (72192) display: _</t>
+  </si>
+  <si>
+    <t>I (72242) display: _</t>
+  </si>
+  <si>
+    <t>I (72292) display: _</t>
+  </si>
+  <si>
+    <t>I (72342) display: _</t>
+  </si>
+  <si>
+    <t>I (72392) display: _</t>
+  </si>
+  <si>
+    <t>I (72442) display: _</t>
+  </si>
+  <si>
+    <t>I (72492) display: _</t>
+  </si>
+  <si>
+    <t>I (72542) display: _</t>
+  </si>
+  <si>
+    <t>I (72592) display: _</t>
+  </si>
+  <si>
+    <t>I (72642) display: _</t>
+  </si>
+  <si>
+    <t>I (72692) display: _</t>
+  </si>
+  <si>
+    <t>I (72742) display: _</t>
+  </si>
+  <si>
+    <t>I (72792) display: _</t>
+  </si>
+  <si>
+    <t>I (73092) display: .</t>
+  </si>
+  <si>
+    <t>I (73142) display: _</t>
+  </si>
+  <si>
+    <t>I (73192) display: _</t>
+  </si>
+  <si>
+    <t>I (73242) display: _</t>
+  </si>
+  <si>
+    <t>I (73292) display: _</t>
+  </si>
+  <si>
+    <t>I (73342) display: _</t>
+  </si>
+  <si>
+    <t>I (73392) display: _</t>
+  </si>
+  <si>
+    <t>I (73442) display: _</t>
+  </si>
+  <si>
+    <t>I (73492) display: _</t>
+  </si>
+  <si>
+    <t>I (73542) display: _</t>
+  </si>
+  <si>
+    <t>I (73592) display: _</t>
+  </si>
+  <si>
+    <t>I (73642) display: _</t>
+  </si>
+  <si>
+    <t>I (73692) display: _</t>
+  </si>
+  <si>
+    <t>I (73742) display: _</t>
+  </si>
+  <si>
+    <t>I (73792) display: _</t>
+  </si>
+  <si>
+    <t>I (73842) display: _</t>
+  </si>
+  <si>
+    <t>I (74142) display: .</t>
+  </si>
+  <si>
+    <t>I (74192) display: _</t>
+  </si>
+  <si>
+    <t>I (74242) display: _</t>
+  </si>
+  <si>
+    <t>I (74292) display: _</t>
+  </si>
+  <si>
+    <t>I (74342) display: _</t>
+  </si>
+  <si>
+    <t>I (74392) display: _</t>
+  </si>
+  <si>
+    <t>I (74442) display: _</t>
+  </si>
+  <si>
+    <t>I (74492) display: _</t>
+  </si>
+  <si>
+    <t>I (74542) display: _</t>
+  </si>
+  <si>
+    <t>I (74592) display: _</t>
+  </si>
+  <si>
+    <t>I (74642) display: _</t>
+  </si>
+  <si>
+    <t>I (74692) display: _</t>
+  </si>
+  <si>
+    <t>I (74742) display: _</t>
+  </si>
+  <si>
+    <t>I (74792) display: _</t>
+  </si>
+  <si>
+    <t>I (74842) display: _</t>
+  </si>
+  <si>
+    <t>I (74892) display: _</t>
+  </si>
+  <si>
+    <t>I (75192) display: .</t>
+  </si>
+  <si>
+    <t>I (75242) display: _</t>
+  </si>
+  <si>
+    <t>I (75292) display: _</t>
+  </si>
+  <si>
+    <t>I (75342) display: _</t>
+  </si>
+  <si>
+    <t>I (75392) display: _</t>
+  </si>
+  <si>
+    <t>I (75442) display: _</t>
+  </si>
+  <si>
+    <t>I (75492) display: _</t>
+  </si>
+  <si>
+    <t>I (75542) display: _</t>
+  </si>
+  <si>
+    <t>I (75592) display: _</t>
+  </si>
+  <si>
+    <t>I (75642) display: _</t>
+  </si>
+  <si>
+    <t>I (75692) display: _</t>
+  </si>
+  <si>
+    <t>I (75742) display: _</t>
+  </si>
+  <si>
+    <t>I (75792) display: _</t>
+  </si>
+  <si>
+    <t>I (75842) display: _</t>
+  </si>
+  <si>
+    <t>I (75892) display: _</t>
+  </si>
+  <si>
+    <t>I (75942) display: _</t>
+  </si>
+  <si>
+    <t>I (76242) display: .</t>
+  </si>
+  <si>
+    <t>I (76292) display: _</t>
+  </si>
+  <si>
+    <t>I (76342) display: _</t>
+  </si>
+  <si>
+    <t>I (76392) display: _</t>
+  </si>
+  <si>
+    <t>I (76442) display: _</t>
+  </si>
+  <si>
+    <t>I (76492) display: _</t>
+  </si>
+  <si>
+    <t>I (76542) display: _</t>
+  </si>
+  <si>
+    <t>I (76592) display: _</t>
+  </si>
+  <si>
+    <t>I (76642) display: _</t>
+  </si>
+  <si>
+    <t>I (76692) display: _</t>
+  </si>
+  <si>
+    <t>I (76742) display: _</t>
+  </si>
+  <si>
+    <t>I (76792) display: _</t>
+  </si>
+  <si>
+    <t>I (76842) display: _</t>
+  </si>
+  <si>
+    <t>I (76892) display: _</t>
+  </si>
+  <si>
+    <t>I (76942) display: _</t>
+  </si>
+  <si>
+    <t>I (76992) display: _</t>
+  </si>
+  <si>
+    <t>I (77292) display: .</t>
+  </si>
+  <si>
+    <t>I (77342) display: _</t>
+  </si>
+  <si>
+    <t>I (77392) display: _</t>
+  </si>
+  <si>
+    <t>I (77442) display: _</t>
+  </si>
+  <si>
+    <t>I (27663) display: _</t>
+  </si>
+  <si>
+    <t>I (28923) display: .</t>
+  </si>
+  <si>
+    <t>I (28973) display: _</t>
+  </si>
+  <si>
+    <t>I (30233) display: .</t>
+  </si>
+  <si>
+    <t>I (30283) display: _</t>
+  </si>
+  <si>
+    <t>I (31543) display: .</t>
+  </si>
+  <si>
+    <t>I (31593) display: _</t>
+  </si>
+  <si>
+    <t>I (32853) display: .</t>
+  </si>
+  <si>
+    <t>I (32903) display: _</t>
+  </si>
+  <si>
+    <t>I (34163) display: .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (4038) display: t1=2479344 t2=3739268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (4088) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (5348) display: t1=3789344 t2=5049268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (5398) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (6658) display: t1=5099344 t2=6359268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (6708) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (7968) display: t1=6409344 t2=7669268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (8018) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (9278) display: t1=7719344 t2=8979268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (9328) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (10588) display: t1=9029344 t2=10289268 dt=1259924. </t>
+  </si>
+  <si>
+    <t>I (10638) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (11898) display: t1=10339346 t2=11599268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (11948) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (13208) display: t1=11649346 t2=12909268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (13258) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (14518) display: t1=12959346 t2=14219268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (14568) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (15828) display: t1=14269346 t2=15529268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (15878) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (17138) display: t1=15579346 t2=16839268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (17188) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (18448) display: t1=16889346 t2=18149268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (18498) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (19758) display: t1=18199346 t2=19459268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (19808) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (21068) display: t1=19509346 t2=20769268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (21118) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (22378) display: t1=20819346 t2=22079268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (22428) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (23688) display: t1=22129361 t2=23389268 dt=1259907. </t>
+  </si>
+  <si>
+    <t>I (23738) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (24998) display: t1=23439346 t2=24699268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (25048) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (26308) display: t1=24749346 t2=26009268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>I (26358) display: _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (27618) display: t1=26059346 t2=27319268 dt=1259922. </t>
+  </si>
+  <si>
+    <t>circle_top</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V11</t>
+  </si>
+  <si>
+    <t>I (369) display: Panel is 128x32</t>
+  </si>
+  <si>
+    <t>I (369) SSD1306: OLED configured successfully</t>
+  </si>
+  <si>
+    <t>I (409) main_task: Returned from app_main()</t>
+  </si>
+  <si>
+    <t>I (409) keyboard: 0: Left button, select item 1 to display time</t>
+  </si>
+  <si>
+    <t>I (409) display: item received 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (449) display: t1=114657 t2=154201 dt=39544. </t>
+  </si>
+  <si>
+    <t>I (2909) keyboard: 2: Right button, increase intensity</t>
+  </si>
+  <si>
+    <t>I (2909) display: item received 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (2939) display: t1=2609287 t2=2648609 dt=39322. </t>
+  </si>
+  <si>
+    <t>I (5409) keyboard: 4: Right button, increase intensity</t>
+  </si>
+  <si>
+    <t>I (5449) display: item received 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I (5479) display: t1=5149152 t2=5188484 dt=39332. </t>
+  </si>
+  <si>
+    <t>I (7909) keyboard: 6: Right button, increase color</t>
+  </si>
+  <si>
+    <t>I (7929) display: item received 3</t>
+  </si>
+  <si>
+    <t>I (7959) display: t1=7629152 t2=7668486 dt=39334.</t>
+  </si>
+  <si>
+    <t>I (10409) keyboard: 8: Left button, select item timer</t>
+  </si>
+  <si>
+    <t>I (10409) display: item received 1</t>
+  </si>
+  <si>
+    <t>I (10439) display: t1=10109281 t2=10148627 dt=39346.</t>
+  </si>
+  <si>
+    <t>I (12909) keyboard: 10: Right button, increase timer</t>
+  </si>
+  <si>
+    <t>I (12949) display: item received 3</t>
+  </si>
+  <si>
+    <t>I (12979) display: t1=12649153 t2=12688487 dt=39334.</t>
   </si>
 </sst>
 </file>
@@ -1780,6 +2957,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60D623D-139A-5830-CE2A-EA8FA5E02C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481513" y="0"/>
+          <a:ext cx="2880000" cy="1862342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2136,11 +3362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2154,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
-        <f>AVERAGE(A4:A15)</f>
+        <f>AVERAGE(A4:A16)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2164,7 +3390,7 @@
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A4:A1048576)</f>
-        <v>0.44444444444444442</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2253,10 +3479,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -2267,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2278,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -2286,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G13" t="str">
         <f>C4&amp;" : "&amp;B4</f>
@@ -2303,20 +3529,20 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G17" si="0">C5&amp;" : "&amp;B5</f>
+        <f>C5&amp;" : "&amp;B5</f>
         <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="C15" t="s">
+        <v>483</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>C6&amp;" : "&amp;B6</f>
         <v>Bedclock_IDF_V03 : Test capacitive touch sensors</v>
       </c>
     </row>
@@ -2325,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>C7&amp;" : "&amp;B7</f>
         <v>Bedclock_IDF_V04 : Test WiFi</v>
       </c>
     </row>
@@ -2337,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>C8&amp;" : "&amp;B8</f>
         <v>Bedclock_IDF_V05 : Test time sync with timeserver</v>
       </c>
     </row>
@@ -2349,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="G18" t="str">
         <f>C10&amp;" : "&amp;B10</f>
@@ -2361,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G19" t="str">
         <f>C11&amp;" : "&amp;B11</f>
@@ -2373,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G20" t="str">
         <f>C12&amp;" : "&amp;B12</f>
@@ -2385,6 +3611,30 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="str">
+        <f>C13&amp;" : "&amp;B13</f>
+        <v>Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="str">
+        <f>C14&amp;" : "&amp;B14</f>
+        <v>Bedclock_IDF_V10 : Create menu structure</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2396,117 +3646,7760 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FA9BA9-5F63-4D61-A1B9-2D13B3B0C4D0}">
-  <dimension ref="A2:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>86</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-32</v>
+      </c>
       <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>-56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>90</v>
+      <c r="A7">
+        <f t="shared" ref="A7:B9" si="0">A6+$B$1</f>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <f>C6-$B$1</f>
+        <v>-72</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
-        <v>97</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f>C7-$B$1</f>
+        <v>-88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
-        <v>99</v>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <f>C8-$B$1</f>
+        <v>-104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
-        <v>100</v>
+      <c r="A11" t="str">
+        <f t="shared" ref="A11:C16" si="1">"."&amp;A$3&amp;" = "&amp;A4&amp;", "</f>
+        <v xml:space="preserve">.text_top = 0, </v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 0, </v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = 0, </v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D16" si="2">"  { "&amp;A11&amp;"  "&amp;B11&amp;"  "&amp;C11&amp;" },  // "&amp;D4</f>
+        <v xml:space="preserve">  { .text_top = 0,   .circle_top = 0,   .screen_offset = 0,  },  // idle</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>101</v>
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.text_top = 32, </v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 0, </v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = -32, </v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  { .text_top = 32,   .circle_top = 0,   .screen_offset = -32,  },  // time</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.text_top = 64, </v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 68, </v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = -56, </v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  { .text_top = 64,   .circle_top = 68,   .screen_offset = -56,  },  // intensity</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.text_top = 80, </v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 84, </v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = -72, </v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  { .text_top = 80,   .circle_top = 84,   .screen_offset = -72,  },  // color</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.text_top = 96, </v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 100, </v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = -88, </v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  { .text_top = 96,   .circle_top = 100,   .screen_offset = -88,  },  // timer</v>
+      </c>
       <c r="L15">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.text_top = 112, </v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.circle_top = 116, </v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">.screen_offset = -104, </v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  { .text_top = 112,   .circle_top = 116,   .screen_offset = -104,  },  // display</v>
       </c>
       <c r="L16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L17">
         <f>L15*L16</f>
         <v>5120</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F18" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.45">
       <c r="L18">
         <f>L17/8</f>
         <v>640</v>
       </c>
       <c r="M18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9399F-7175-4AF7-8A2B-38A718F35009}">
+  <dimension ref="A1:L380"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="L351" sqref="L351"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="47.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1">
+        <f>SEARCH("(",A1)</f>
+        <v>3</v>
+      </c>
+      <c r="D1" t="str">
+        <f>MID(A1,C1+1,5)</f>
+        <v>55742</v>
+      </c>
+      <c r="E1">
+        <f>IF(RIGHT(A1,1)="_",VALUE(D1),"")</f>
+        <v>55742</v>
+      </c>
+      <c r="F1" t="str">
+        <f>IF(RIGHT(A1,1)=".",VALUE(D1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">SEARCH("(",A2)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="1">MID(A2,C2+1,5)</f>
+        <v>55792</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" si="2">IF(RIGHT(A2,1)="_",VALUE(D2),"")</f>
+        <v>55792</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F65" si="3">IF(RIGHT(A2,1)=".",VALUE(D2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>55842</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>55842</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>55892</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>55892</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>E4-E3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>55942</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>55942</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>E5-E4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>55992</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>55992</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>E6-E5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>56292</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>56292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
-        <v>105</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>56342</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>56342</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>56392</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>56392</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>E9-E8</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>56442</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>56442</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>E10-E9</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>56492</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>56492</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>E11-E10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>56542</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>56542</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>E12-E11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>56592</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>56592</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>E13-E12</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>56642</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>56642</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>E14-E13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>56692</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>56692</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>E15-E14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>56742</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>56742</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>56792</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>56792</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>56842</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>56842</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>56892</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>56892</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>56942</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>56942</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>56992</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>56992</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>57042</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>57042</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>57342</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>57342</v>
+      </c>
+      <c r="G23">
+        <f>F23-F7</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>57392</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>57392</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>57442</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>57442</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>57492</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>57492</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>57542</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>57542</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>57592</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>57592</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>57642</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>57642</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>57692</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>57692</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>57742</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>57742</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>57792</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>57792</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>57842</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>57842</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>57892</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>57892</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>57942</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>57942</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>57992</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>57992</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>58042</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>58042</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>58092</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>58092</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>58392</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>58392</v>
+      </c>
+      <c r="G39">
+        <f>F39-F23</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>58442</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>58442</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>58492</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>58492</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>58542</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>58542</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>58592</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>58592</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>58642</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>58642</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>58692</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>58692</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>58742</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>58742</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>58792</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>58792</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>58842</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>58842</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>58892</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>58892</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>58942</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>58942</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>58992</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>58992</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>59042</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>59042</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>59092</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>59092</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>59142</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>59142</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>59442</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>59442</v>
+      </c>
+      <c r="G55">
+        <f>F55-F39</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>59492</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>59492</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>59542</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>59542</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>59592</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>59592</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>59642</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>59642</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>59692</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>59692</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>59742</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>59742</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>59792</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>59792</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>59842</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>59842</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>59892</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>59892</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>59942</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>59942</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C129" si="4">SEARCH("(",A66)</f>
+        <v>3</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" si="5">MID(A66,C66+1,5)</f>
+        <v>59992</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E129" si="6">IF(RIGHT(A66,1)="_",VALUE(D66),"")</f>
+        <v>59992</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F129" si="7">IF(RIGHT(A66,1)=".",VALUE(D66),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="5"/>
+        <v>60042</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>60042</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="5"/>
+        <v>60092</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>60092</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="5"/>
+        <v>60142</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>60142</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="5"/>
+        <v>60192</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>60192</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="5"/>
+        <v>60492</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>60492</v>
+      </c>
+      <c r="G71">
+        <f>F71-F55</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="5"/>
+        <v>60542</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>60542</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="5"/>
+        <v>60592</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>60592</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="5"/>
+        <v>60642</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>60642</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="5"/>
+        <v>60692</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>60692</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="5"/>
+        <v>60742</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>60742</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="5"/>
+        <v>60792</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>60792</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="5"/>
+        <v>60842</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>60842</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="5"/>
+        <v>60892</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>60892</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="5"/>
+        <v>60942</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>60942</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="5"/>
+        <v>60992</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>60992</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="5"/>
+        <v>61042</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>61042</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="5"/>
+        <v>61092</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>61092</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="5"/>
+        <v>61142</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>61142</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="5"/>
+        <v>61192</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>61192</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="5"/>
+        <v>61242</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>61242</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="5"/>
+        <v>61542</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>61542</v>
+      </c>
+      <c r="G87">
+        <f>F87-F71</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="5"/>
+        <v>61592</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>61592</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="5"/>
+        <v>61642</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>61642</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="5"/>
+        <v>61692</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>61692</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="5"/>
+        <v>61742</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>61742</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="5"/>
+        <v>61792</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>61792</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="5"/>
+        <v>61842</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>61842</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="5"/>
+        <v>61892</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>61892</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="5"/>
+        <v>61942</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>61942</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="5"/>
+        <v>61992</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>61992</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="5"/>
+        <v>62042</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>62042</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="5"/>
+        <v>62092</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>62092</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="5"/>
+        <v>62142</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>62142</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="5"/>
+        <v>62192</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>62192</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="5"/>
+        <v>62242</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>62242</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="5"/>
+        <v>62292</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>62292</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="5"/>
+        <v>62592</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F103">
+        <f t="shared" si="7"/>
+        <v>62592</v>
+      </c>
+      <c r="G103">
+        <f>F103-F87</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="5"/>
+        <v>62642</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>62642</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="5"/>
+        <v>62692</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>62692</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="5"/>
+        <v>62742</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>62742</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="5"/>
+        <v>62792</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>62792</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="5"/>
+        <v>62842</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>62842</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="5"/>
+        <v>62892</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>62892</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="5"/>
+        <v>62942</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="6"/>
+        <v>62942</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="5"/>
+        <v>62992</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="6"/>
+        <v>62992</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="5"/>
+        <v>63042</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="6"/>
+        <v>63042</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="5"/>
+        <v>63092</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="6"/>
+        <v>63092</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="5"/>
+        <v>63142</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="6"/>
+        <v>63142</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="5"/>
+        <v>63192</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="6"/>
+        <v>63192</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="5"/>
+        <v>63242</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="6"/>
+        <v>63242</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="5"/>
+        <v>63292</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="6"/>
+        <v>63292</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="5"/>
+        <v>63342</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="6"/>
+        <v>63342</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="5"/>
+        <v>63642</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F119">
+        <f t="shared" si="7"/>
+        <v>63642</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="5"/>
+        <v>63692</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="6"/>
+        <v>63692</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="5"/>
+        <v>63742</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="6"/>
+        <v>63742</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="5"/>
+        <v>63792</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="6"/>
+        <v>63792</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="5"/>
+        <v>63842</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="6"/>
+        <v>63842</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="5"/>
+        <v>63892</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="6"/>
+        <v>63892</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="5"/>
+        <v>63942</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="6"/>
+        <v>63942</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="5"/>
+        <v>63992</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="6"/>
+        <v>63992</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="5"/>
+        <v>64042</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="6"/>
+        <v>64042</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="5"/>
+        <v>64092</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="6"/>
+        <v>64092</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>233</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="5"/>
+        <v>64142</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="6"/>
+        <v>64142</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C193" si="8">SEARCH("(",A130)</f>
+        <v>3</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" si="9">MID(A130,C130+1,5)</f>
+        <v>64192</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ref="E130:E193" si="10">IF(RIGHT(A130,1)="_",VALUE(D130),"")</f>
+        <v>64192</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" ref="F130:F193" si="11">IF(RIGHT(A130,1)=".",VALUE(D130),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="9"/>
+        <v>64242</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="10"/>
+        <v>64242</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="9"/>
+        <v>64292</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="10"/>
+        <v>64292</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>237</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="9"/>
+        <v>64342</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="10"/>
+        <v>64342</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="9"/>
+        <v>64392</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="10"/>
+        <v>64392</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="9"/>
+        <v>64692</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>64692</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="9"/>
+        <v>64742</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="10"/>
+        <v>64742</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>241</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="9"/>
+        <v>64792</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="10"/>
+        <v>64792</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="9"/>
+        <v>64842</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="10"/>
+        <v>64842</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="9"/>
+        <v>64892</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="10"/>
+        <v>64892</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="9"/>
+        <v>64942</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="10"/>
+        <v>64942</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="9"/>
+        <v>64992</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="10"/>
+        <v>64992</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="9"/>
+        <v>65042</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="10"/>
+        <v>65042</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="9"/>
+        <v>65092</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="10"/>
+        <v>65092</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>248</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="9"/>
+        <v>65142</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="10"/>
+        <v>65142</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="9"/>
+        <v>65192</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="10"/>
+        <v>65192</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="9"/>
+        <v>65242</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="10"/>
+        <v>65242</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="9"/>
+        <v>65292</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="10"/>
+        <v>65292</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="9"/>
+        <v>65342</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="10"/>
+        <v>65342</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>253</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="9"/>
+        <v>65392</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="10"/>
+        <v>65392</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="9"/>
+        <v>65442</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="10"/>
+        <v>65442</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>255</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="9"/>
+        <v>65742</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F151">
+        <f t="shared" si="11"/>
+        <v>65742</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="9"/>
+        <v>65792</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="10"/>
+        <v>65792</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>257</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="9"/>
+        <v>65842</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="10"/>
+        <v>65842</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>258</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="9"/>
+        <v>65892</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="10"/>
+        <v>65892</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="9"/>
+        <v>65942</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="10"/>
+        <v>65942</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="9"/>
+        <v>65992</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="10"/>
+        <v>65992</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>261</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="9"/>
+        <v>66042</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="10"/>
+        <v>66042</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="9"/>
+        <v>66092</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="10"/>
+        <v>66092</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="9"/>
+        <v>66142</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="10"/>
+        <v>66142</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>264</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="9"/>
+        <v>66192</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="10"/>
+        <v>66192</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>265</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="9"/>
+        <v>66242</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="10"/>
+        <v>66242</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>266</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="9"/>
+        <v>66292</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="10"/>
+        <v>66292</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="9"/>
+        <v>66342</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="10"/>
+        <v>66342</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>268</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="9"/>
+        <v>66392</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="10"/>
+        <v>66392</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="9"/>
+        <v>66442</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="10"/>
+        <v>66442</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="9"/>
+        <v>66492</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="10"/>
+        <v>66492</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="9"/>
+        <v>66792</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F167">
+        <f t="shared" si="11"/>
+        <v>66792</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="9"/>
+        <v>66842</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="10"/>
+        <v>66842</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="9"/>
+        <v>66892</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="10"/>
+        <v>66892</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="9"/>
+        <v>66942</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="10"/>
+        <v>66942</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="9"/>
+        <v>66992</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="10"/>
+        <v>66992</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="9"/>
+        <v>67042</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="10"/>
+        <v>67042</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="9"/>
+        <v>67092</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="10"/>
+        <v>67092</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>278</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="9"/>
+        <v>67142</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="10"/>
+        <v>67142</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>279</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="9"/>
+        <v>67192</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="10"/>
+        <v>67192</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>280</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="9"/>
+        <v>67242</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="10"/>
+        <v>67242</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="9"/>
+        <v>67292</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="10"/>
+        <v>67292</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="9"/>
+        <v>67342</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="10"/>
+        <v>67342</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>283</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="9"/>
+        <v>67392</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="10"/>
+        <v>67392</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="9"/>
+        <v>67442</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="10"/>
+        <v>67442</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>285</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="9"/>
+        <v>67492</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="10"/>
+        <v>67492</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>286</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="9"/>
+        <v>67542</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="10"/>
+        <v>67542</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>287</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="9"/>
+        <v>67842</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F183">
+        <f t="shared" si="11"/>
+        <v>67842</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>288</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="9"/>
+        <v>67892</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="10"/>
+        <v>67892</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>289</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="9"/>
+        <v>67942</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="10"/>
+        <v>67942</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>290</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="9"/>
+        <v>67992</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="10"/>
+        <v>67992</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>291</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="9"/>
+        <v>68042</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="10"/>
+        <v>68042</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>292</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="9"/>
+        <v>68092</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="10"/>
+        <v>68092</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>293</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="9"/>
+        <v>68142</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="10"/>
+        <v>68142</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="9"/>
+        <v>68192</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="10"/>
+        <v>68192</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>295</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="9"/>
+        <v>68242</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="10"/>
+        <v>68242</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>296</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="9"/>
+        <v>68292</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="10"/>
+        <v>68292</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="9"/>
+        <v>68342</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="10"/>
+        <v>68342</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194:C257" si="12">SEARCH("(",A194)</f>
+        <v>3</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D257" si="13">MID(A194,C194+1,5)</f>
+        <v>68392</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ref="E194:E257" si="14">IF(RIGHT(A194,1)="_",VALUE(D194),"")</f>
+        <v>68392</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" ref="F194:F257" si="15">IF(RIGHT(A194,1)=".",VALUE(D194),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="13"/>
+        <v>68442</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="14"/>
+        <v>68442</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>300</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="13"/>
+        <v>68492</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="14"/>
+        <v>68492</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="13"/>
+        <v>68542</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="14"/>
+        <v>68542</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>302</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="13"/>
+        <v>68592</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="14"/>
+        <v>68592</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>303</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="13"/>
+        <v>68892</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F199">
+        <f t="shared" si="15"/>
+        <v>68892</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>304</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="13"/>
+        <v>68942</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="14"/>
+        <v>68942</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="13"/>
+        <v>68992</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="14"/>
+        <v>68992</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>306</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="13"/>
+        <v>69042</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="14"/>
+        <v>69042</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>307</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="13"/>
+        <v>69092</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="14"/>
+        <v>69092</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>308</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="13"/>
+        <v>69142</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="14"/>
+        <v>69142</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>309</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="13"/>
+        <v>69192</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="14"/>
+        <v>69192</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>310</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="13"/>
+        <v>69242</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="14"/>
+        <v>69242</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>311</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="13"/>
+        <v>69292</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="14"/>
+        <v>69292</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>312</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="13"/>
+        <v>69342</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="14"/>
+        <v>69342</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>313</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="13"/>
+        <v>69392</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="14"/>
+        <v>69392</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>314</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="13"/>
+        <v>69442</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="14"/>
+        <v>69442</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>315</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="13"/>
+        <v>69492</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="14"/>
+        <v>69492</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>316</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="13"/>
+        <v>69542</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="14"/>
+        <v>69542</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>317</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="13"/>
+        <v>69592</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="14"/>
+        <v>69592</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>318</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="13"/>
+        <v>69642</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="14"/>
+        <v>69642</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>319</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="13"/>
+        <v>69942</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F215">
+        <f t="shared" si="15"/>
+        <v>69942</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>320</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="13"/>
+        <v>69992</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="14"/>
+        <v>69992</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>321</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="13"/>
+        <v>70042</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="14"/>
+        <v>70042</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>322</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="13"/>
+        <v>70092</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="14"/>
+        <v>70092</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>323</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="13"/>
+        <v>70142</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="14"/>
+        <v>70142</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>324</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="13"/>
+        <v>70192</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="14"/>
+        <v>70192</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>325</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="13"/>
+        <v>70242</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="14"/>
+        <v>70242</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>326</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="13"/>
+        <v>70292</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="14"/>
+        <v>70292</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>327</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="13"/>
+        <v>70342</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="14"/>
+        <v>70342</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>328</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="13"/>
+        <v>70392</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="14"/>
+        <v>70392</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>329</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="13"/>
+        <v>70442</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="14"/>
+        <v>70442</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>330</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="13"/>
+        <v>70492</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="14"/>
+        <v>70492</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>331</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="13"/>
+        <v>70542</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="14"/>
+        <v>70542</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>332</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="13"/>
+        <v>70592</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="14"/>
+        <v>70592</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>333</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="13"/>
+        <v>70642</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="14"/>
+        <v>70642</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>334</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="13"/>
+        <v>70692</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="14"/>
+        <v>70692</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>335</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="13"/>
+        <v>70992</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F231">
+        <f t="shared" si="15"/>
+        <v>70992</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>336</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="13"/>
+        <v>71042</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="14"/>
+        <v>71042</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>337</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="13"/>
+        <v>71092</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="14"/>
+        <v>71092</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>338</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="13"/>
+        <v>71142</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="14"/>
+        <v>71142</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>339</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="13"/>
+        <v>71192</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="14"/>
+        <v>71192</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>340</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="13"/>
+        <v>71242</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="14"/>
+        <v>71242</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>341</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="13"/>
+        <v>71292</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="14"/>
+        <v>71292</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>342</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="13"/>
+        <v>71342</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="14"/>
+        <v>71342</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>343</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="13"/>
+        <v>71392</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="14"/>
+        <v>71392</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>344</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="13"/>
+        <v>71442</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="14"/>
+        <v>71442</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="13"/>
+        <v>71492</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="14"/>
+        <v>71492</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>346</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="13"/>
+        <v>71542</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="14"/>
+        <v>71542</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>347</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="13"/>
+        <v>71592</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="14"/>
+        <v>71592</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="13"/>
+        <v>71642</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="14"/>
+        <v>71642</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>349</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="13"/>
+        <v>71692</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="14"/>
+        <v>71692</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>350</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="13"/>
+        <v>71742</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="14"/>
+        <v>71742</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>351</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="13"/>
+        <v>72042</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F247">
+        <f t="shared" si="15"/>
+        <v>72042</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>352</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="13"/>
+        <v>72092</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="14"/>
+        <v>72092</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>353</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="13"/>
+        <v>72142</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="14"/>
+        <v>72142</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>354</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="13"/>
+        <v>72192</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="14"/>
+        <v>72192</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>355</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="13"/>
+        <v>72242</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="14"/>
+        <v>72242</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>356</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="13"/>
+        <v>72292</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="14"/>
+        <v>72292</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>357</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="13"/>
+        <v>72342</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="14"/>
+        <v>72342</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>358</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="13"/>
+        <v>72392</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="14"/>
+        <v>72392</v>
+      </c>
+      <c r="F254" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>359</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="13"/>
+        <v>72442</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="14"/>
+        <v>72442</v>
+      </c>
+      <c r="F255" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>360</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="13"/>
+        <v>72492</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="14"/>
+        <v>72492</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>361</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="13"/>
+        <v>72542</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="14"/>
+        <v>72542</v>
+      </c>
+      <c r="F257" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>362</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ref="C258:C321" si="16">SEARCH("(",A258)</f>
+        <v>3</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" ref="D258:D321" si="17">MID(A258,C258+1,5)</f>
+        <v>72592</v>
+      </c>
+      <c r="E258">
+        <f t="shared" ref="E258:E321" si="18">IF(RIGHT(A258,1)="_",VALUE(D258),"")</f>
+        <v>72592</v>
+      </c>
+      <c r="F258" t="str">
+        <f t="shared" ref="F258:F321" si="19">IF(RIGHT(A258,1)=".",VALUE(D258),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>363</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="17"/>
+        <v>72642</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="18"/>
+        <v>72642</v>
+      </c>
+      <c r="F259" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>364</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="17"/>
+        <v>72692</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="18"/>
+        <v>72692</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>365</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="17"/>
+        <v>72742</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="18"/>
+        <v>72742</v>
+      </c>
+      <c r="F261" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>366</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="17"/>
+        <v>72792</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="18"/>
+        <v>72792</v>
+      </c>
+      <c r="F262" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>367</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="17"/>
+        <v>73092</v>
+      </c>
+      <c r="E263" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F263">
+        <f t="shared" si="19"/>
+        <v>73092</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>368</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="17"/>
+        <v>73142</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="18"/>
+        <v>73142</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>369</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="17"/>
+        <v>73192</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="18"/>
+        <v>73192</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>370</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="17"/>
+        <v>73242</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="18"/>
+        <v>73242</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>371</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="17"/>
+        <v>73292</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="18"/>
+        <v>73292</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>372</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="17"/>
+        <v>73342</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="18"/>
+        <v>73342</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>373</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="17"/>
+        <v>73392</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="18"/>
+        <v>73392</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>374</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="17"/>
+        <v>73442</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="18"/>
+        <v>73442</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>375</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="17"/>
+        <v>73492</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="18"/>
+        <v>73492</v>
+      </c>
+      <c r="F271" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>376</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="17"/>
+        <v>73542</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="18"/>
+        <v>73542</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>377</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="17"/>
+        <v>73592</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="18"/>
+        <v>73592</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>378</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="17"/>
+        <v>73642</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="18"/>
+        <v>73642</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>379</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="17"/>
+        <v>73692</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="18"/>
+        <v>73692</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>380</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="17"/>
+        <v>73742</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="18"/>
+        <v>73742</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>381</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="17"/>
+        <v>73792</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="18"/>
+        <v>73792</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>382</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="17"/>
+        <v>73842</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="18"/>
+        <v>73842</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>383</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="17"/>
+        <v>74142</v>
+      </c>
+      <c r="E279" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F279">
+        <f t="shared" si="19"/>
+        <v>74142</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>384</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="17"/>
+        <v>74192</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="18"/>
+        <v>74192</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>385</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="17"/>
+        <v>74242</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="18"/>
+        <v>74242</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>386</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="17"/>
+        <v>74292</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="18"/>
+        <v>74292</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>387</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="17"/>
+        <v>74342</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="18"/>
+        <v>74342</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="17"/>
+        <v>74392</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="18"/>
+        <v>74392</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>389</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="17"/>
+        <v>74442</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="18"/>
+        <v>74442</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>390</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="17"/>
+        <v>74492</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="18"/>
+        <v>74492</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>391</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="17"/>
+        <v>74542</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="18"/>
+        <v>74542</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>392</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="17"/>
+        <v>74592</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="18"/>
+        <v>74592</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>393</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="17"/>
+        <v>74642</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="18"/>
+        <v>74642</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>394</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="17"/>
+        <v>74692</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="18"/>
+        <v>74692</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>395</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="17"/>
+        <v>74742</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="18"/>
+        <v>74742</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>396</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="17"/>
+        <v>74792</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="18"/>
+        <v>74792</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>397</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="17"/>
+        <v>74842</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="18"/>
+        <v>74842</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>398</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="17"/>
+        <v>74892</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="18"/>
+        <v>74892</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>399</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="17"/>
+        <v>75192</v>
+      </c>
+      <c r="E295" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F295">
+        <f t="shared" si="19"/>
+        <v>75192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>400</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="17"/>
+        <v>75242</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="18"/>
+        <v>75242</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>401</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="17"/>
+        <v>75292</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="18"/>
+        <v>75292</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>402</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="17"/>
+        <v>75342</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="18"/>
+        <v>75342</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>403</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="17"/>
+        <v>75392</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="18"/>
+        <v>75392</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>404</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="17"/>
+        <v>75442</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="18"/>
+        <v>75442</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>405</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="17"/>
+        <v>75492</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="18"/>
+        <v>75492</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>406</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="17"/>
+        <v>75542</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="18"/>
+        <v>75542</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>407</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="17"/>
+        <v>75592</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="18"/>
+        <v>75592</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>408</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="17"/>
+        <v>75642</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="18"/>
+        <v>75642</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>409</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="17"/>
+        <v>75692</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="18"/>
+        <v>75692</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>410</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="17"/>
+        <v>75742</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="18"/>
+        <v>75742</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>411</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="17"/>
+        <v>75792</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="18"/>
+        <v>75792</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>412</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="17"/>
+        <v>75842</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="18"/>
+        <v>75842</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>413</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="17"/>
+        <v>75892</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="18"/>
+        <v>75892</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>414</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="17"/>
+        <v>75942</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="18"/>
+        <v>75942</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>415</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="17"/>
+        <v>76242</v>
+      </c>
+      <c r="E311" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F311">
+        <f t="shared" si="19"/>
+        <v>76242</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>416</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="17"/>
+        <v>76292</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="18"/>
+        <v>76292</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>417</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="17"/>
+        <v>76342</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="18"/>
+        <v>76342</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>418</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="17"/>
+        <v>76392</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="18"/>
+        <v>76392</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>419</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="17"/>
+        <v>76442</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="18"/>
+        <v>76442</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>420</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="17"/>
+        <v>76492</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="18"/>
+        <v>76492</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>421</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="17"/>
+        <v>76542</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="18"/>
+        <v>76542</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>422</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="17"/>
+        <v>76592</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="18"/>
+        <v>76592</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>423</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="17"/>
+        <v>76642</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="18"/>
+        <v>76642</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>424</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="17"/>
+        <v>76692</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="18"/>
+        <v>76692</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>425</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="17"/>
+        <v>76742</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="18"/>
+        <v>76742</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>426</v>
+      </c>
+      <c r="C322">
+        <f t="shared" ref="C322:C331" si="20">SEARCH("(",A322)</f>
+        <v>3</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" ref="D322:D331" si="21">MID(A322,C322+1,5)</f>
+        <v>76792</v>
+      </c>
+      <c r="E322">
+        <f t="shared" ref="E322:E331" si="22">IF(RIGHT(A322,1)="_",VALUE(D322),"")</f>
+        <v>76792</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" ref="F322:F331" si="23">IF(RIGHT(A322,1)=".",VALUE(D322),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>427</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="21"/>
+        <v>76842</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="22"/>
+        <v>76842</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>428</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="21"/>
+        <v>76892</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="22"/>
+        <v>76892</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>429</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="21"/>
+        <v>76942</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="22"/>
+        <v>76942</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>430</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="21"/>
+        <v>76992</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="22"/>
+        <v>76992</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>431</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="21"/>
+        <v>77292</v>
+      </c>
+      <c r="E327" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F327">
+        <f t="shared" si="23"/>
+        <v>77292</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>432</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="21"/>
+        <v>77342</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="22"/>
+        <v>77342</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>433</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="21"/>
+        <v>77392</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="22"/>
+        <v>77392</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>434</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="21"/>
+        <v>77442</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="22"/>
+        <v>77442</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>435</v>
+      </c>
+      <c r="C331">
+        <f t="shared" ref="C331:C340" si="24">SEARCH("(",A331)</f>
+        <v>3</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" ref="D331:D340" si="25">MID(A331,C331+1,5)</f>
+        <v>27663</v>
+      </c>
+      <c r="E331">
+        <f t="shared" ref="E331:E340" si="26">IF(RIGHT(A331,1)="_",VALUE(D331),"")</f>
+        <v>27663</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" ref="F331:F340" si="27">IF(RIGHT(A331,1)=".",VALUE(D331),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>436</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="25"/>
+        <v>28923</v>
+      </c>
+      <c r="E332" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F332">
+        <f t="shared" si="27"/>
+        <v>28923</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>437</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="25"/>
+        <v>28973</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="26"/>
+        <v>28973</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>438</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="25"/>
+        <v>30233</v>
+      </c>
+      <c r="E334" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F334">
+        <f t="shared" si="27"/>
+        <v>30233</v>
+      </c>
+      <c r="G334">
+        <f>F334-F332</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>439</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="25"/>
+        <v>30283</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="26"/>
+        <v>30283</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>440</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="25"/>
+        <v>31543</v>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F336">
+        <f t="shared" si="27"/>
+        <v>31543</v>
+      </c>
+      <c r="G336">
+        <f>F336-F334</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>441</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="25"/>
+        <v>31593</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="26"/>
+        <v>31593</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>442</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="25"/>
+        <v>32853</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F338">
+        <f t="shared" si="27"/>
+        <v>32853</v>
+      </c>
+      <c r="G338">
+        <f>F338-F336</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>443</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="25"/>
+        <v>32903</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="26"/>
+        <v>32903</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>444</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="25"/>
+        <v>34163</v>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F340">
+        <f t="shared" si="27"/>
+        <v>34163</v>
+      </c>
+      <c r="G340">
+        <f>F340-F338</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>446</v>
+      </c>
+      <c r="G345" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>447</v>
+      </c>
+      <c r="G346" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>448</v>
+      </c>
+      <c r="G347" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>449</v>
+      </c>
+      <c r="G348" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>450</v>
+      </c>
+      <c r="G349" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>451</v>
+      </c>
+      <c r="G350" t="s">
+        <v>489</v>
+      </c>
+      <c r="L350">
+        <f>46423/1000000</f>
+        <v>4.6422999999999999E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>452</v>
+      </c>
+      <c r="G351" t="s">
+        <v>490</v>
+      </c>
+      <c r="L351">
+        <f>1/L350</f>
+        <v>21.541046464037223</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>453</v>
+      </c>
+      <c r="G352" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>454</v>
+      </c>
+      <c r="G353" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>455</v>
+      </c>
+      <c r="G354" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>456</v>
+      </c>
+      <c r="G355" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>457</v>
+      </c>
+      <c r="G356" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>458</v>
+      </c>
+      <c r="G357" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>459</v>
+      </c>
+      <c r="G358" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>460</v>
+      </c>
+      <c r="G359" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>461</v>
+      </c>
+      <c r="G360" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>462</v>
+      </c>
+      <c r="G361" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>463</v>
+      </c>
+      <c r="G362" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>464</v>
+      </c>
+      <c r="G363" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>465</v>
+      </c>
+      <c r="G364" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>466</v>
+      </c>
+      <c r="G365" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +11407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CBDAB-00D5-431B-8CF1-C9D570B575C5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -4567,7 +13460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07230AEC-070D-4D11-9AC7-3E13EFF8C1AE}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -4633,14 +13526,14 @@
         <v>68</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D6" si="0">HEX2DEC(C4)</f>
+        <f>HEX2DEC(C4)</f>
         <v>57344</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G6" si="1">HEX2DEC(F4)</f>
+        <f>HEX2DEC(F4)</f>
         <v>8192</v>
       </c>
     </row>
@@ -4652,14 +13545,14 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(C5)</f>
         <v>65536</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(F5)</f>
         <v>4063232</v>
       </c>
     </row>
@@ -4671,14 +13564,14 @@
         <v>69</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>HEX2DEC(C6)</f>
         <v>4128768</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>HEX2DEC(F6)</f>
         <v>65536</v>
       </c>
     </row>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD93F5C-7640-45D0-A5BA-7DE18A174AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9FDE5-7DB4-46BD-8186-D67238EF32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -595,13 +595,64 @@
   <si>
     <t>I (29598) light: I: 42 R: 1 G: 1 B: 0</t>
   </si>
+  <si>
+    <t>58) light: Light manually switched on</t>
+  </si>
+  <si>
+    <t>I (25758) light: R: 1.281 G: 0.990 B: 0.729</t>
+  </si>
+  <si>
+    <t>I (25758) light: R: 2 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25758) light: R: 1 G: 1 B: 0</t>
+  </si>
+  <si>
+    <t>I (25758) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25768) light: R: 2 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25768) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25778) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25778) light: R: 2 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25788) light: R: 2 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25788) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25798) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25798) light: R: 1 G: 1 B: 0</t>
+  </si>
+  <si>
+    <t>I (25808) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25808) light: R: 1 G: 1 B: 0</t>
+  </si>
+  <si>
+    <t>I (25828) light: R: 1 G: 1 B: 1</t>
+  </si>
+  <si>
+    <t>I (25828) light: R: 2 G: 1 B: 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -692,7 +743,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2782,7 +2833,7 @@
         <v>110</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D2:D11" si="0">A7&amp;"      "&amp;B7</f>
+        <f t="shared" ref="D7:D11" si="0">A7&amp;"      "&amp;B7</f>
         <v>5*60*1000,       // .led_timer = 0</v>
       </c>
       <c r="F7">
@@ -2913,15 +2964,15 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <f>L14/AVERAGE($L14:$N14)</f>
+        <f t="shared" ref="P14:R17" si="2">L14/AVERAGE($L14:$N14)</f>
         <v>1</v>
       </c>
       <c r="Q14">
-        <f>M14/AVERAGE($L14:$N14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R14">
-        <f>N14/AVERAGE($L14:$N14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2957,15 +3008,15 @@
         <v>0.56862745098039214</v>
       </c>
       <c r="P15">
-        <f>L15/AVERAGE($L15:$N15)</f>
+        <f t="shared" si="2"/>
         <v>1.1787365177195686</v>
       </c>
       <c r="Q15">
-        <f>M15/AVERAGE($L15:$N15)</f>
+        <f t="shared" si="2"/>
         <v>1.1510015408320493</v>
       </c>
       <c r="R15">
-        <f>N15/AVERAGE($L15:$N15)</f>
+        <f t="shared" si="2"/>
         <v>0.67026194144838214</v>
       </c>
     </row>
@@ -2999,15 +3050,15 @@
         <v>145</v>
       </c>
       <c r="P16">
-        <f>L16/AVERAGE($L16:$N16)</f>
+        <f t="shared" si="2"/>
         <v>1.2814070351758795</v>
       </c>
       <c r="Q16">
-        <f>M16/AVERAGE($L16:$N16)</f>
+        <f t="shared" si="2"/>
         <v>0.98994974874371855</v>
       </c>
       <c r="R16">
-        <f>N16/AVERAGE($L16:$N16)</f>
+        <f t="shared" si="2"/>
         <v>0.72864321608040206</v>
       </c>
     </row>
@@ -3041,15 +3092,15 @@
         <v>85</v>
       </c>
       <c r="P17">
-        <f>L17/AVERAGE($L17:$N17)</f>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
       <c r="Q17">
-        <f>M17/AVERAGE($L17:$N17)</f>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="R17">
-        <f>N17/AVERAGE($L17:$N17)</f>
+        <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
@@ -3087,7 +3138,7 @@
         <v>6.2871668245621765E-2</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F25" si="2">"    "&amp;TEXT(B22,"0.000")&amp;",  // .led_intensity = "&amp;TEXT(A22,"0")</f>
+        <f t="shared" ref="F22:F25" si="3">"    "&amp;TEXT(B22,"0.000")&amp;",  // .led_intensity = "&amp;TEXT(A22,"0")</f>
         <v xml:space="preserve">    0.063,  // .led_intensity = 1</v>
       </c>
     </row>
@@ -3100,7 +3151,7 @@
         <v>0.15811386671950095</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    0.158,  // .led_intensity = 2</v>
       </c>
     </row>
@@ -3113,7 +3164,7 @@
         <v>0.39763530293683674</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    0.398,  // .led_intensity = 3</v>
       </c>
     </row>
@@ -3126,7 +3177,7 @@
         <v>0.9999997939596843</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">    1.000,  // .led_intensity = 4</v>
       </c>
     </row>
@@ -3277,427 +3328,427 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
-        <f t="shared" ref="A43:A52" si="3">A42&amp;", "&amp;TEXT(B43,"0.00")</f>
+        <f t="shared" ref="A43:A52" si="4">A42&amp;", "&amp;TEXT(B43,"0.00")</f>
         <v>0.00, 0.41, 0.81</v>
       </c>
       <c r="B43" s="12">
-        <f t="shared" ref="B43:B60" si="4">B42+$D$36</f>
+        <f t="shared" ref="B43:B60" si="5">B42+$D$36</f>
         <v>0.81043288469291963</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" ref="C43:C60" si="5">C42+$D$37</f>
+        <f t="shared" ref="C43:C60" si="6">C42+$D$37</f>
         <v>0.62609913052747113</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" ref="D43:D60" si="6">D42+$D$38</f>
+        <f t="shared" ref="D43:D60" si="7">D42+$D$38</f>
         <v>0.46083438541362093</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" ref="F43:F52" si="7">INT(B43)</f>
+        <f t="shared" ref="F43:F52" si="8">INT(B43)</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G52" si="8">INT(16*MOD(B43,1))</f>
+        <f t="shared" ref="G43:G52" si="9">INT(16*MOD(B43,1))</f>
         <v>12</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I52" si="9">F43+G43/16</f>
+        <f t="shared" ref="I43:I52" si="10">F43+G43/16</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22</v>
       </c>
       <c r="B44" s="12">
+        <f t="shared" si="5"/>
+        <v>1.2156493270393796</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="6"/>
+        <v>0.93914869579120674</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="7"/>
+        <v>0.69125157812043136</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="str">
         <f t="shared" si="4"/>
-        <v>1.2156493270393796</v>
-      </c>
-      <c r="C44" s="12">
+        <v>0.00, 0.41, 0.81, 1.22, 1.62</v>
+      </c>
+      <c r="B45" s="12">
         <f t="shared" si="5"/>
-        <v>0.93914869579120674</v>
-      </c>
-      <c r="D44" s="12">
+        <v>1.6208657693858393</v>
+      </c>
+      <c r="C45" s="12">
         <f t="shared" si="6"/>
-        <v>0.69125157812043136</v>
-      </c>
-      <c r="F44" s="13">
+        <v>1.2521982610549423</v>
+      </c>
+      <c r="D45" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G44">
+        <v>0.92166877082724186</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03</v>
+      </c>
+      <c r="B46" s="12">
+        <f t="shared" si="5"/>
+        <v>2.026082211732299</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="6"/>
+        <v>1.5652478263186778</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="7"/>
+        <v>1.1520859635340523</v>
+      </c>
+      <c r="F46" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43</v>
+      </c>
+      <c r="B47" s="12">
+        <f t="shared" si="5"/>
+        <v>2.4312986540787587</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="6"/>
+        <v>1.8782973915824133</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="7"/>
+        <v>1.3825031562408627</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84</v>
+      </c>
+      <c r="B48" s="12">
+        <f t="shared" si="5"/>
+        <v>2.8365150964252184</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="6"/>
+        <v>2.1913469568461488</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="7"/>
+        <v>1.6129203489476731</v>
+      </c>
+      <c r="F48" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="str">
+        <f t="shared" si="4"/>
+        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24</v>
+      </c>
+      <c r="B49" s="12">
+        <f t="shared" si="5"/>
+        <v>3.2417315387716781</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="6"/>
+        <v>2.5043965221098845</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8433375416544835</v>
+      </c>
+      <c r="F49" s="13">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="I44">
+      <c r="G49">
         <f t="shared" si="9"/>
-        <v>1.1875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62</v>
-      </c>
-      <c r="B45" s="12">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="str">
         <f t="shared" si="4"/>
-        <v>1.6208657693858393</v>
-      </c>
-      <c r="C45" s="12">
+        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65</v>
+      </c>
+      <c r="B50" s="12">
         <f t="shared" si="5"/>
-        <v>1.2521982610549423</v>
-      </c>
-      <c r="D45" s="12">
+        <v>3.6469479811181378</v>
+      </c>
+      <c r="C50" s="12">
         <f t="shared" si="6"/>
-        <v>0.92166877082724186</v>
-      </c>
-      <c r="F45" s="13">
+        <v>2.8174460873736202</v>
+      </c>
+      <c r="D50" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="9"/>
-        <v>1.5625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03</v>
-      </c>
-      <c r="B46" s="12">
-        <f t="shared" si="4"/>
-        <v>2.026082211732299</v>
-      </c>
-      <c r="C46" s="12">
-        <f t="shared" si="5"/>
-        <v>1.5652478263186778</v>
-      </c>
-      <c r="D46" s="12">
-        <f t="shared" si="6"/>
-        <v>1.1520859635340523</v>
-      </c>
-      <c r="F46" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43</v>
-      </c>
-      <c r="B47" s="12">
-        <f t="shared" si="4"/>
-        <v>2.4312986540787587</v>
-      </c>
-      <c r="C47" s="12">
-        <f t="shared" si="5"/>
-        <v>1.8782973915824133</v>
-      </c>
-      <c r="D47" s="12">
-        <f t="shared" si="6"/>
-        <v>1.3825031562408627</v>
-      </c>
-      <c r="F47" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="9"/>
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84</v>
-      </c>
-      <c r="B48" s="12">
-        <f t="shared" si="4"/>
-        <v>2.8365150964252184</v>
-      </c>
-      <c r="C48" s="12">
-        <f t="shared" si="5"/>
-        <v>2.1913469568461488</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" si="6"/>
-        <v>1.6129203489476731</v>
-      </c>
-      <c r="F48" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="9"/>
-        <v>2.8125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24</v>
-      </c>
-      <c r="B49" s="12">
-        <f t="shared" si="4"/>
-        <v>3.2417315387716781</v>
-      </c>
-      <c r="C49" s="12">
-        <f t="shared" si="5"/>
-        <v>2.5043965221098845</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" si="6"/>
-        <v>1.8433375416544835</v>
-      </c>
-      <c r="F49" s="13">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G49">
+        <v>2.0737547343612941</v>
+      </c>
+      <c r="F50" s="13">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="G50">
         <f t="shared" si="9"/>
-        <v>3.1875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" t="str">
-        <f t="shared" si="3"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65</v>
-      </c>
-      <c r="B50" s="12">
-        <f t="shared" si="4"/>
-        <v>3.6469479811181378</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.8174460873736202</v>
-      </c>
-      <c r="D50" s="12">
-        <f t="shared" si="6"/>
-        <v>2.0737547343612941</v>
-      </c>
-      <c r="F50" s="13">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.625</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0521644234645979</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.130495652637356</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3041719270681047</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05, 4.46</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4573808658110581</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4435452179010917</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5345891197749153</v>
       </c>
       <c r="F52" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4375</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B53" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8625973081575182</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7565947831648274</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7650063124817259</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B54" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2678137505039784</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0696443484285627</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9954235051885365</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B55" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6730301928504385</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3826939136922984</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2258406978953471</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B56" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0782466351968987</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6957434789560342</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4562578906021577</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B57" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4834630775433588</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0087930442197699</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6866750833089683</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B58" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.888679519889819</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3218426094835056</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9170922760157789</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B59" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2938959622362791</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6348921747472414</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1475094687225891</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B60" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6991124045827393</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9479417400109771</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3779266614293997</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B61" s="12">
-        <f t="shared" ref="B61" si="10">B60+$D$36</f>
+        <f t="shared" ref="B61" si="11">B60+$D$36</f>
         <v>8.1043288469291994</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" ref="C61" si="11">C60+$D$37</f>
+        <f t="shared" ref="C61" si="12">C60+$D$37</f>
         <v>6.2609913052747128</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61" si="12">D60+$D$38</f>
+        <f t="shared" ref="D61" si="13">D60+$D$38</f>
         <v>4.6083438541362103</v>
       </c>
     </row>
@@ -4064,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9399F-7175-4AF7-8A2B-38A718F35009}">
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4111,7 +4162,7 @@
       </c>
       <c r="F7">
         <f ca="1">AVERAGE(E8:E23)</f>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -4120,7 +4171,7 @@
       </c>
       <c r="D8">
         <f ca="1">RAND()</f>
-        <v>0.87052337539550173</v>
+        <v>0.79534334986675947</v>
       </c>
       <c r="E8">
         <f ca="1">IF(D8&gt;=$E$7,0,1)</f>
@@ -4133,7 +4184,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D23" ca="1" si="0">RAND()</f>
-        <v>0.99997318160758053</v>
+        <v>0.57180819236266278</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E23" ca="1" si="1">IF(D9&gt;=$E$7,0,1)</f>
@@ -4146,11 +4197,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.787090656784875E-2</v>
+        <v>0.4956048353672845</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -4159,7 +4210,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53012451916661318</v>
+        <v>0.64444378594425944</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
@@ -4172,7 +4223,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96452257467143432</v>
+        <v>0.22224331213647319</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
@@ -4185,11 +4236,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62714519530501434</v>
+        <v>7.9692031806879005E-2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -4198,17 +4249,17 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.077267596677145E-3</v>
+        <v>0.71121411459222172</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25192087955059961</v>
+        <v>0.97604481580659341</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
@@ -4218,7 +4269,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91361920716252398</v>
+        <v>0.86293366160840079</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
@@ -4228,7 +4279,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31897995334391649</v>
+        <v>0.42985898335992578</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
@@ -4238,7 +4289,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94987729939125087</v>
+        <v>0.88173439610535809</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
@@ -4248,7 +4299,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73832038508233266</v>
+        <v>0.47308106076830758</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
@@ -4258,7 +4309,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67245587568481346</v>
+        <v>0.80862680393671404</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
@@ -4268,7 +4319,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71760063066944246</v>
+        <v>0.77949487834763664</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
@@ -4278,7 +4329,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83156450692717088</v>
+        <v>0.59067974748572583</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
@@ -4288,7 +4339,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18247563841590453</v>
+        <v>0.76026987701130966</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
@@ -4413,6 +4464,308 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(B52:B71)</f>
+        <v>1.25</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(C52:C71)</f>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE(D52:D71)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9FDE5-7DB4-46BD-8186-D67238EF32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C95E74-E251-481E-8628-14DA460B3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="229">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -503,148 +503,253 @@
     <t>Try using ESP-IDF driver for SSD1306</t>
   </si>
   <si>
-    <t>I (14108) light: Light manually switched on</t>
-  </si>
-  <si>
-    <t>I (14108) light: R: 1.179 G: 1.151 B: 0.670</t>
-  </si>
-  <si>
-    <t>I (14108) light: Red int 1.000 fraction 0.179</t>
-  </si>
-  <si>
-    <t>I (14108) light: Green int 1.000 fraction 0.151</t>
-  </si>
-  <si>
-    <t>I (14118) light: Blue int 0.000 fraction 0.670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I (14178) display: t1=13457899 t2=13517926 dt=60027. </t>
-  </si>
-  <si>
-    <t>I (14208) main: Main blip</t>
-  </si>
-  <si>
-    <t>I (29058) display: Increase LED color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I (29118) display: t1=28390018 t2=28450283 dt=60265. </t>
-  </si>
-  <si>
-    <t>I (29158) light: R: 1.179 G: 1.151 B: 0.670</t>
-  </si>
-  <si>
-    <t>I (29158) light: Red int 1.000 fraction 0.179</t>
-  </si>
-  <si>
-    <t>I (29158) light: Green int 1.000 fraction 0.151</t>
-  </si>
-  <si>
-    <t>I (29158) light: Blue int 0.000 fraction 0.670</t>
-  </si>
-  <si>
-    <t>I (29238) main: Main blip</t>
-  </si>
-  <si>
-    <t>I (29548) light: Final values for the LEDs:</t>
-  </si>
-  <si>
-    <t>I (29548) light: I: 0 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29548) light: I: 9 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29548) light: I: 18 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29548) light: I: 27 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29568) light: I: 36 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29568) light: I: 45 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29568) light: I: 3 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29568) light: I: 12 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29568) light: I: 21 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29578) light: I: 30 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29578) light: I: 39 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29588) light: I: 6 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29588) light: I: 15 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29598) light: I: 24 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29598) light: I: 33 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (29598) light: I: 42 R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>58) light: Light manually switched on</t>
-  </si>
-  <si>
-    <t>I (25758) light: R: 1.281 G: 0.990 B: 0.729</t>
-  </si>
-  <si>
-    <t>I (25758) light: R: 2 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25758) light: R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (25758) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25768) light: R: 2 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25768) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25778) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25778) light: R: 2 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25788) light: R: 2 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25788) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25798) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25798) light: R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (25808) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25808) light: R: 1 G: 1 B: 0</t>
-  </si>
-  <si>
-    <t>I (25828) light: R: 1 G: 1 B: 1</t>
-  </si>
-  <si>
-    <t>I (25828) light: R: 2 G: 1 B: 1</t>
+    <t>_x001B_[0;32mI (3228) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (4238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (5238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (5238) main: Auto restart timer 4564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (6238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (7238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (7238) main: Single shot timer_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (8238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (8238) main: Auto restart timer 7564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (9238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (10238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (11238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (11238) main: Auto restart timer 10564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (12238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (13238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (14238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (14238) main: Auto restart timer 13564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (15238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (16238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (17238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (17238) main: Auto restart timer 16564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (18238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (19238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (20238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (20238) main: Auto restart timer 19564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (21238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (22238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (22308) display: Display back to sleep_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (23238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (23238) main: Auto restart timer 22564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (24238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (25238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (26238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (26238) main: Auto restart timer 25564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (27238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (28238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (29238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (29238) main: Auto restart timer 28564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (30238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (31238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (32238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (32238) main: Auto restart timer 31564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (33238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (34238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (35238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (35238) main: Auto restart timer 34564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (36238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (37238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (38238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (38238) main: Auto restart timer 37564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (39238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (40238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (41238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (41238) main: Auto restart timer 40564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (42238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (43238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (44238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (44238) main: Auto restart timer 43564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (45238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (46238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (47238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (47238) main: Auto restart timer 46564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (48238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (49238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (50238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (50238) main: Auto restart timer 49564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (51238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (52238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (53238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (53238) main: Auto restart timer 52564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (54238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (55238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (56238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (56238) main: Auto restart timer 55564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (57238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (58238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (59238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (59238) main: Auto restart timer 58564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (60238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (61238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (62238) main: Main blip_x001B_[0m</t>
+  </si>
+  <si>
+    <t>_x001B_[0;32mI (62238) main: Auto restart timer 61564884_x001B_[0m</t>
+  </si>
+  <si>
+    <t>const uint8_t DISPLAY_INTENSITY[] = {</t>
   </si>
 </sst>
 </file>
@@ -2741,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F3A0C-BCE4-45A2-918D-4AA29D9B0FCD}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3750,6 +3855,103 @@
       <c r="D61" s="12">
         <f t="shared" ref="D61" si="13">D60+$D$38</f>
         <v>4.6083438541362103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>2.672340169981581</v>
+      </c>
+      <c r="F64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="13">
+        <f>B66/$B$64</f>
+        <v>5.0000370298362782</v>
+      </c>
+      <c r="C65" t="str">
+        <f>"0x"&amp;DEC2HEX(B65,2)</f>
+        <v>0x05</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f>"    "&amp;C65&amp;" ,    // .display_intensity = "&amp;TEXT(A65,"0")</f>
+        <v xml:space="preserve">    0x05 ,    // .display_intensity = 0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="13">
+        <f>B67/$B$64</f>
+        <v>13.361799806226879</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C69" si="14">"0x"&amp;DEC2HEX(B66,2)</f>
+        <v>0x0D</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f t="shared" ref="F66:F69" si="15">"    "&amp;C66&amp;" ,    // .display_intensity = "&amp;TEXT(A66,"0")</f>
+        <v xml:space="preserve">    0x0D ,    // .display_intensity = 1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="13">
+        <f>B68/$B$64</f>
+        <v>35.707274365432191</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="14"/>
+        <v>0x23</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    0x23 ,    // .display_intensity = 2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="13">
+        <f>B69/$B$64</f>
+        <v>95.421983647298006</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="14"/>
+        <v>0x5F</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    0x5F ,    // .display_intensity = 3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" s="13">
+        <v>255</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="14"/>
+        <v>0xFF</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    0xFF ,    // .display_intensity = 4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F70" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4115,284 +4317,116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9399F-7175-4AF7-8A2B-38A718F35009}">
-  <dimension ref="A2:F71"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>255</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>4564884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>150</v>
       </c>
-      <c r="C2">
-        <f>A2*B2/1000</f>
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3/1000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C4">
-        <f>C2+C3</f>
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E7">
-        <v>0.15</v>
-      </c>
-      <c r="F7">
-        <f ca="1">AVERAGE(E8:E23)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8">
-        <f ca="1">RAND()</f>
-        <v>0.79534334986675947</v>
-      </c>
-      <c r="E8">
-        <f ca="1">IF(D8&gt;=$E$7,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D23" ca="1" si="0">RAND()</f>
-        <v>0.57180819236266278</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E23" ca="1" si="1">IF(D9&gt;=$E$7,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4956048353672845</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64444378594425944</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22224331213647319</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9692031806879005E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
         <v>152</v>
       </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71121411459222172</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97604481580659341</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86293366160840079</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42985898335992578</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88173439610535809</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47308106076830758</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80862680393671404</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77949487834763664</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59067974748572583</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76026987701130966</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17">
+        <v>7564884</v>
+      </c>
+      <c r="H17">
+        <f>G17-G7</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="G25">
+        <v>10564884</v>
+      </c>
+      <c r="H25">
+        <f>G25-G17</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4401,374 +4435,330 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>178</v>
       </c>
-      <c r="B51">
-        <f>AVERAGE(B52:B71)</f>
-        <v>1.25</v>
-      </c>
-      <c r="C51">
-        <f>AVERAGE(C52:C71)</f>
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <f>AVERAGE(D52:D71)</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>179</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>180</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>181</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>182</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>183</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>184</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>185</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>186</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>187</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>188</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>189</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>190</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>191</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>192</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>193</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I8:J55">
+    <sortCondition ref="I8:I55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C95E74-E251-481E-8628-14DA460B3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22015D-E2B1-48C0-8D11-2C3F42EDF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>const uint8_t DISPLAY_INTENSITY[] = {</t>
+  </si>
+  <si>
+    <t>Scrolling example LVGL</t>
+  </si>
+  <si>
+    <t>Bedclock_IDF_V12</t>
   </si>
 </sst>
 </file>
@@ -2550,11 +2556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:G22"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2578,7 +2584,7 @@
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A4:A1048576)</f>
-        <v>0.55555555555555558</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2713,13 +2719,13 @@
         <v>89</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G22" si="0">C5&amp;" : "&amp;B5</f>
+        <f t="shared" ref="G13:G24" si="0">C5&amp;" : "&amp;B5</f>
         <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2749,93 +2755,92 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V05 : Test time sync with timeserver</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V07 : Test FreeRTOS</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V08 : Implement multiple parallel processes</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V10 : First working version</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>Bedclock_IDF_V11 : Try using ESP-IDF driver for SSD1306</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H25">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H26">
-        <f>H24/H25</f>
-        <v>3.515625E-2</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G23" t="str">
+        <f>C16&amp;" : "&amp;B16</f>
+        <v>Bedclock_IDF_V12 : Scrolling example LVGL</v>
       </c>
     </row>
   </sheetData>
@@ -2846,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F3A0C-BCE4-45A2-918D-4AA29D9B0FCD}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3611,7 +3616,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24</v>
@@ -3641,7 +3646,7 @@
         <v>3.1875</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65</v>
@@ -3671,7 +3676,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05</v>
@@ -3701,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="4"/>
         <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05, 4.46</v>
@@ -3731,7 +3736,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B53" s="12">
         <f t="shared" si="5"/>
         <v>4.8625973081575182</v>
@@ -3745,7 +3750,7 @@
         <v>2.7650063124817259</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B54" s="12">
         <f t="shared" si="5"/>
         <v>5.2678137505039784</v>
@@ -3759,7 +3764,7 @@
         <v>2.9954235051885365</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B55" s="12">
         <f t="shared" si="5"/>
         <v>5.6730301928504385</v>
@@ -3773,7 +3778,7 @@
         <v>3.2258406978953471</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B56" s="12">
         <f t="shared" si="5"/>
         <v>6.0782466351968987</v>
@@ -3787,7 +3792,7 @@
         <v>3.4562578906021577</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B57" s="12">
         <f t="shared" si="5"/>
         <v>6.4834630775433588</v>
@@ -3801,7 +3806,7 @@
         <v>3.6866750833089683</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B58" s="12">
         <f t="shared" si="5"/>
         <v>6.888679519889819</v>
@@ -3815,7 +3820,7 @@
         <v>3.9170922760157789</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B59" s="12">
         <f t="shared" si="5"/>
         <v>7.2938959622362791</v>
@@ -3829,7 +3834,7 @@
         <v>4.1475094687225891</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="12">
         <f t="shared" si="5"/>
         <v>7.6991124045827393</v>
@@ -3843,7 +3848,7 @@
         <v>4.3779266614293997</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="12">
         <f t="shared" ref="B61" si="11">B60+$D$36</f>
         <v>8.1043288469291994</v>
@@ -3857,9 +3862,15 @@
         <v>4.6083438541362103</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L62">
+        <f>HEX2DEC("1f")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B64">
-        <v>2.672340169981581</v>
+        <v>15.967105496833609</v>
       </c>
       <c r="F64" t="s">
         <v>228</v>
@@ -3871,15 +3882,15 @@
       </c>
       <c r="B65" s="13">
         <f>B66/$B$64</f>
-        <v>5.0000370298362782</v>
+        <v>1.0002021665610414</v>
       </c>
       <c r="C65" t="str">
         <f>"0x"&amp;DEC2HEX(B65,2)</f>
-        <v>0x05</v>
+        <v>0x01</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>"    "&amp;C65&amp;" ,    // .display_intensity = "&amp;TEXT(A65,"0")</f>
-        <v xml:space="preserve">    0x05 ,    // .display_intensity = 0</v>
+        <f>"    "&amp;C65&amp;",    // .display_intensity = "&amp;TEXT(A65,"0")</f>
+        <v xml:space="preserve">    0x01,    // .display_intensity = 0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3888,15 +3899,15 @@
       </c>
       <c r="B66" s="13">
         <f>B67/$B$64</f>
-        <v>13.361799806226879</v>
+        <v>15.970333511641689</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C69" si="14">"0x"&amp;DEC2HEX(B66,2)</f>
-        <v>0x0D</v>
+        <f t="shared" ref="C66:C67" si="14">"0x"&amp;DEC2HEX(B66,2)</f>
+        <v>0x0F</v>
       </c>
       <c r="F66" s="4" t="str">
-        <f t="shared" ref="F66:F69" si="15">"    "&amp;C66&amp;" ,    // .display_intensity = "&amp;TEXT(A66,"0")</f>
-        <v xml:space="preserve">    0x0D ,    // .display_intensity = 1</v>
+        <f t="shared" ref="F66:F67" si="15">"    "&amp;C66&amp;",    // .display_intensity = "&amp;TEXT(A66,"0")</f>
+        <v xml:space="preserve">    0x0F,    // .display_intensity = 1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -3904,53 +3915,19 @@
         <v>2</v>
       </c>
       <c r="B67" s="13">
-        <f>B68/$B$64</f>
-        <v>35.707274365432191</v>
+        <v>255</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="14"/>
-        <v>0x23</v>
+        <v>0xFF</v>
       </c>
       <c r="F67" s="4" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">    0x23 ,    // .display_intensity = 2</v>
+        <v xml:space="preserve">    0xFF,    // .display_intensity = 2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68" s="13">
-        <f>B69/$B$64</f>
-        <v>95.421983647298006</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="14"/>
-        <v>0x5F</v>
-      </c>
-      <c r="F68" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    0x5F ,    // .display_intensity = 3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69" s="13">
-        <v>255</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="14"/>
-        <v>0xFF</v>
-      </c>
-      <c r="F69" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    0xFF ,    // .display_intensity = 4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F70" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>128</v>
       </c>
     </row>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22015D-E2B1-48C0-8D11-2C3F42EDF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9764F6-79D1-4C47-9AE7-D7A6237C992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -503,252 +503,6 @@
     <t>Try using ESP-IDF driver for SSD1306</t>
   </si>
   <si>
-    <t>_x001B_[0;32mI (3228) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (4238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (5238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (5238) main: Auto restart timer 4564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (6238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (7238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (7238) main: Single shot timer_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (8238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (8238) main: Auto restart timer 7564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (9238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (10238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (11238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (11238) main: Auto restart timer 10564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (12238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (13238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (14238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (14238) main: Auto restart timer 13564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (15238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (16238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (17238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (17238) main: Auto restart timer 16564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (18238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (19238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (20238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (20238) main: Auto restart timer 19564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (21238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (22238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (22308) display: Display back to sleep_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (23238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (23238) main: Auto restart timer 22564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (24238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (25238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (26238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (26238) main: Auto restart timer 25564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (27238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (28238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (29238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (29238) main: Auto restart timer 28564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (30238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (31238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (32238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (32238) main: Auto restart timer 31564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (33238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (34238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (35238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (35238) main: Auto restart timer 34564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (36238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (37238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (38238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (38238) main: Auto restart timer 37564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (39238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (40238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (41238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (41238) main: Auto restart timer 40564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (42238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (43238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (44238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (44238) main: Auto restart timer 43564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (45238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (46238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (47238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (47238) main: Auto restart timer 46564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (48238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (49238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (50238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (50238) main: Auto restart timer 49564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (51238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (52238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (53238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (53238) main: Auto restart timer 52564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (54238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (55238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (56238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (56238) main: Auto restart timer 55564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (57238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (58238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (59238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (59238) main: Auto restart timer 58564884_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (60238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (61238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (62238) main: Main blip_x001B_[0m</t>
-  </si>
-  <si>
-    <t>_x001B_[0;32mI (62238) main: Auto restart timer 61564884_x001B_[0m</t>
-  </si>
-  <si>
     <t>const uint8_t DISPLAY_INTENSITY[] = {</t>
   </si>
   <si>
@@ -756,6 +510,12 @@
   </si>
   <si>
     <t>Bedclock_IDF_V12</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -839,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -856,6 +616,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2560,7 +2323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2719,7 +2482,7 @@
         <v>89</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G24" si="0">C5&amp;" : "&amp;B5</f>
+        <f t="shared" ref="G13:G22" si="0">C5&amp;" : "&amp;B5</f>
         <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
       </c>
     </row>
@@ -2755,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -2853,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F3A0C-BCE4-45A2-918D-4AA29D9B0FCD}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3177,20 +2940,20 @@
         <v>3</v>
       </c>
       <c r="B17" s="11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="11">
-        <v>0.60000000000000009</v>
+        <v>0.75</v>
       </c>
       <c r="D17" s="11">
-        <v>0.60000000000000009</v>
+        <v>0.75</v>
       </c>
       <c r="E17" t="s">
         <v>133</v>
       </c>
       <c r="F17" t="str">
         <f>"  { .r = "&amp;TEXT(B17,"0.000")&amp;",  .g = "&amp;TEXT(C17,"0.000")&amp;",  .b = "&amp;TEXT(D17,"0.000")&amp;" },    // "&amp;TEXT(A17,"0")&amp;" = "&amp;E17</f>
-        <v xml:space="preserve">  { .r = 1.800,  .g = 0.600,  .b = 0.600 },    // 3 = Red</v>
+        <v xml:space="preserve">  { .r = 1.500,  .g = 0.750,  .b = 0.750 },    // 3 = Red</v>
       </c>
       <c r="L17">
         <v>255</v>
@@ -3219,12 +2982,40 @@
         <v>128</v>
       </c>
     </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L19">
+        <v>1.5</v>
+      </c>
+      <c r="M19">
+        <v>0.75</v>
+      </c>
+      <c r="N19">
+        <f>M19</f>
+        <v>0.75</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(L19:N19)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B20" s="12">
         <v>2.5148667298248704</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
+      </c>
+      <c r="L20">
+        <f>L19/$O$19</f>
+        <v>1.5</v>
+      </c>
+      <c r="M20">
+        <f>M19/$O$19</f>
+        <v>0.75</v>
+      </c>
+      <c r="N20">
+        <f>N19/$O$19</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
@@ -3873,7 +3664,7 @@
         <v>15.967105496833609</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -4294,442 +4085,658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD9399F-7175-4AF7-8A2B-38A718F35009}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
         <v>149</v>
       </c>
-      <c r="G7">
-        <v>4564884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3+1</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:X3" si="0">E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:S4" si="1">E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C5" s="3">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <f>D4+2</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:E11" si="2">E4+2</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F11" si="3">F4+2</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G11" si="4">G4+2</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H11" si="5">H4+2</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5:I11" si="6">I4+2</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" ref="J5:J11" si="7">J4+2</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K11" si="8">K4+2</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L11" si="9">L4+2</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" ref="M5:M11" si="10">M4+2</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" ref="N5:N11" si="11">N4+2</f>
+        <v>3</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O11" si="12">O4+2</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" ref="P5:P11" si="13">P4+2</f>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" ref="Q5:Q11" si="14">Q4+2</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" ref="R5:R11" si="15">R4+2</f>
+        <v>3</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" ref="S5:S11" si="16">S4+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C14" si="17">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D11" si="18">D5+2</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C7" s="3">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C8" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C9" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C10" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C11" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17">
-        <v>7564884</v>
-      </c>
-      <c r="H17">
-        <f>G17-G7</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25">
-        <v>10564884</v>
-      </c>
-      <c r="H25">
-        <f>G25-G17</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>227</v>
+        <f>G15*G16</f>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9764F6-79D1-4C47-9AE7-D7A6237C992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6738DF-E4B4-4E92-AFBC-282D26754941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Test FreeRTOS</t>
-  </si>
-  <si>
-    <t>Port current WS2812 functionality to ESP-IDF</t>
-  </si>
-  <si>
-    <t>First working version</t>
   </si>
   <si>
     <t>Total progress</t>
@@ -500,9 +494,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Try using ESP-IDF driver for SSD1306</t>
-  </si>
-  <si>
     <t>const uint8_t DISPLAY_INTENSITY[] = {</t>
   </si>
   <si>
@@ -516,6 +507,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>First working version of pixel buffer</t>
+  </si>
+  <si>
+    <t>First working version of application</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>Different sub-projects to port the Arduino project to ESP-IDF</t>
+  </si>
+  <si>
+    <t>*/</t>
   </si>
 </sst>
 </file>
@@ -2319,11 +2325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2335,25 +2341,25 @@
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
         <f>AVERAGE(A4:A13)</f>
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A4:A1048576)</f>
-        <v>0.63157894736842102</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2361,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2375,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2389,52 +2395,52 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2442,168 +2448,221 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" t="str">
-        <f>C4&amp;" : "&amp;B4</f>
-        <v>Bedclock_IDF_V01 : Test WS2812 led chain</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <f>"    "&amp;C4&amp;" : "&amp;B4</f>
+        <v xml:space="preserve">    Bedclock_IDF_V01 : Test WS2812 led chain</v>
+      </c>
+      <c r="N12" t="str">
+        <f>"  * `"&amp;C4&amp;"` : "&amp;B4</f>
+        <v xml:space="preserve">  * `Bedclock_IDF_V01` : Test WS2812 led chain</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G22" si="0">C5&amp;" : "&amp;B5</f>
-        <v>Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <f t="shared" ref="G13:G24" si="0">"    "&amp;C5&amp;" : "&amp;B5</f>
+        <v xml:space="preserve">    Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13:N23" si="1">"  * `"&amp;C5&amp;"` : "&amp;B5</f>
+        <v xml:space="preserve">  * `Bedclock_IDF_V02` : Test SSD1306 OLED screen</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V03 : Test capacitive touch sensors</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V03 : Test capacitive touch sensors</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V03` : Test capacitive touch sensors</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V04 : Test WiFi</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V04 : Test WiFi</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V04` : Test WiFi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V05 : Test time sync with timeserver</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V05 : Test time sync with timeserver</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V05` : Test time sync with timeserver</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V06` : Port timer object using esp_timer_get_time() / 1000;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V07 : Test FreeRTOS</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V07 : Test FreeRTOS</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V07` : Test FreeRTOS</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V08 : Implement multiple parallel processes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V08 : Implement multiple parallel processes</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V08` : Implement multiple parallel processes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V09` : Internal Espressif SSD1306 driver including LVGL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V10 : First working version</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
+        <v xml:space="preserve">    Bedclock_IDF_V10 : First working version of application</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V10` : First working version of application</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>Bedclock_IDF_V11 : Try using ESP-IDF driver for SSD1306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">    Bedclock_IDF_V11 : First working version of pixel buffer</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V11` : First working version of pixel buffer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G23" t="str">
-        <f>C16&amp;" : "&amp;B16</f>
-        <v>Bedclock_IDF_V12 : Scrolling example LVGL</v>
+        <f>"    "&amp;C15&amp;" : "&amp;B15</f>
+        <v xml:space="preserve">    Bedclock_IDF_V12 : Scrolling example LVGL</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V12` : Scrolling example LVGL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2690,7 @@
         <v xml:space="preserve">0.03, </v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" t="str">
         <f>A1&amp;"      "&amp;F1</f>
@@ -2648,7 +2707,7 @@
         <v xml:space="preserve">0.06, </v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" t="str">
         <f>A2&amp;"      "&amp;F2</f>
@@ -2661,7 +2720,7 @@
         <v xml:space="preserve">0.16, </v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" t="str">
         <f>A3&amp;"      "&amp;F3</f>
@@ -2674,7 +2733,7 @@
         <v xml:space="preserve">0.40, </v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H4" t="str">
         <f>A4&amp;"      "&amp;F4</f>
@@ -2687,7 +2746,7 @@
         <v xml:space="preserve">1.00, </v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" t="str">
         <f>A5&amp;"      "&amp;F5</f>
@@ -2703,7 +2762,7 @@
         <v xml:space="preserve">5*60*1000, </v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D11" si="0">A7&amp;"      "&amp;B7</f>
@@ -2722,7 +2781,7 @@
         <v xml:space="preserve">7*60*1000, </v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2739,7 +2798,7 @@
         <v xml:space="preserve">10*60*1000, </v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2756,7 +2815,7 @@
         <v xml:space="preserve">14*60*1000, </v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2773,7 +2832,7 @@
         <v xml:space="preserve">20*60*1000, </v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2786,25 +2845,25 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -2821,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" t="str">
         <f>"  { .r = "&amp;TEXT(B14,"0.000")&amp;",  .g = "&amp;TEXT(C14,"0.000")&amp;",  .b = "&amp;TEXT(D14,"0.000")&amp;" },    // "&amp;TEXT(A14,"0")&amp;" = "&amp;E14</f>
@@ -2863,7 +2922,7 @@
         <v>0.67026194144838214</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" t="str">
         <f>"  { .r = "&amp;TEXT(B15,"0.000")&amp;",  .g = "&amp;TEXT(C15,"0.000")&amp;",  .b = "&amp;TEXT(D15,"0.000")&amp;" },    // "&amp;TEXT(A15,"0")&amp;" = "&amp;E15</f>
@@ -2907,7 +2966,7 @@
         <v>0.72864321608040206</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" t="str">
         <f>"  { .r = "&amp;TEXT(B16,"0.000")&amp;",  .g = "&amp;TEXT(C16,"0.000")&amp;",  .b = "&amp;TEXT(D16,"0.000")&amp;" },    // "&amp;TEXT(A16,"0")&amp;" = "&amp;E16</f>
@@ -2949,7 +3008,7 @@
         <v>0.75</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" t="str">
         <f>"  { .r = "&amp;TEXT(B17,"0.000")&amp;",  .g = "&amp;TEXT(C17,"0.000")&amp;",  .b = "&amp;TEXT(D17,"0.000")&amp;" },    // "&amp;TEXT(A17,"0")&amp;" = "&amp;E17</f>
@@ -2979,7 +3038,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
@@ -3003,7 +3062,7 @@
         <v>2.5148667298248704</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L20">
         <f>L19/$O$19</f>
@@ -3084,12 +3143,12 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -3097,7 +3156,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3109,7 +3168,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3117,7 +3176,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -3125,15 +3184,15 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B36" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,B14:B17)</f>
@@ -3150,7 +3209,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,C14:C17)</f>
@@ -3167,7 +3226,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,D14:D17)</f>
@@ -3664,7 +3723,7 @@
         <v>15.967105496833609</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -3719,7 +3778,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F68" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1">
         <v>16</v>
@@ -3756,13 +3815,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -3776,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -3790,7 +3849,7 @@
         <v>-32</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -3804,7 +3863,7 @@
         <v>-56</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -3821,7 +3880,7 @@
         <v>-72</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -3838,7 +3897,7 @@
         <v>-88</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -3855,7 +3914,7 @@
         <v>-104</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -3978,7 +4037,7 @@
         <v>5120</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -3987,69 +4046,69 @@
         <v>640</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <f>B20*B21</f>
         <v>4096</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <f>B22/8</f>
         <v>512</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>400000</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="10">
         <v>0.8</v>
@@ -4057,14 +4116,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <f>B22/(B25*B26)</f>
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -4073,7 +4132,7 @@
         <v>12.8</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4095,7 +4154,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.45">
@@ -4107,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:X3" si="0">E3+1</f>
+        <f t="shared" ref="F3:S3" si="0">E3+1</f>
         <v>2</v>
       </c>
       <c r="G3" s="3">
@@ -4165,7 +4224,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4305,7 +4364,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C14" si="17">C5+1</f>
+        <f t="shared" ref="C6:C11" si="17">C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="14">
@@ -4761,22 +4820,22 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s">
         <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
       </c>
       <c r="S1">
         <v>671</v>
@@ -4802,18 +4861,18 @@
         <v>671</v>
       </c>
       <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
         <v>102</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <f>SEARCH(C$1,$A2)</f>
@@ -4902,7 +4961,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="5">SEARCH(C$1,$A3)</f>
@@ -4991,7 +5050,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <f t="shared" si="5"/>
@@ -5080,7 +5139,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <f t="shared" si="5"/>
@@ -5157,7 +5216,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -5238,7 +5297,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
@@ -5319,7 +5378,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
@@ -5400,7 +5459,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -5477,7 +5536,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -5554,7 +5613,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -5631,7 +5690,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -5708,7 +5767,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -5785,7 +5844,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -5862,7 +5921,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -5939,7 +5998,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -6016,7 +6075,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -6093,7 +6152,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -6170,7 +6229,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -6247,7 +6306,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -6324,7 +6383,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -6401,7 +6460,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -6478,7 +6537,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
@@ -6555,7 +6614,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
@@ -6632,7 +6691,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
@@ -6709,7 +6768,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
@@ -6786,7 +6845,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
@@ -6863,7 +6922,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
@@ -6940,7 +6999,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
@@ -7017,7 +7076,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
@@ -7094,7 +7153,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
@@ -7171,7 +7230,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
@@ -7248,7 +7307,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
@@ -7325,7 +7384,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
@@ -7402,7 +7461,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
@@ -7479,7 +7538,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
@@ -7556,7 +7615,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
@@ -7633,7 +7692,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
@@ -7710,7 +7769,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
@@ -8629,42 +8688,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <f>HEX2DEC(C3)</f>
         <v>36864</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <f>HEX2DEC(F3)</f>
@@ -8673,17 +8732,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <f>HEX2DEC(C4)</f>
         <v>57344</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <f>HEX2DEC(F4)</f>
@@ -8692,17 +8751,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <f>HEX2DEC(C5)</f>
         <v>65536</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <f>HEX2DEC(F5)</f>
@@ -8711,17 +8770,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <f>HEX2DEC(C6)</f>
         <v>4128768</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <f>HEX2DEC(F6)</f>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6738DF-E4B4-4E92-AFBC-282D26754941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3158B7-F326-4442-8AB8-C700573E7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -65,18 +65,6 @@
     <t>Implement advanced ssd1306 functions</t>
   </si>
   <si>
-    <t>ssd1306_contrast(&amp;dev, 0xff);</t>
-  </si>
-  <si>
-    <t>ssd1306_software_scroll(&amp;dev, 1, (dev._pages - 1) );</t>
-  </si>
-  <si>
-    <t>Advanced ssd1306 functions:</t>
-  </si>
-  <si>
-    <t>ssd1306_hardware_scroll(&amp;dev, SCROLL_RIGHT);</t>
-  </si>
-  <si>
     <t>T0:</t>
   </si>
   <si>
@@ -270,19 +258,6 @@
   </si>
   <si>
     <t>Bedclock_IDF_V05</t>
-  </si>
-  <si>
-    <r>
-      <t>ssd1306_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>fadeout(&amp;dev);</t>
-    </r>
   </si>
   <si>
     <t>Document essential settings menu_config</t>
@@ -497,9 +472,6 @@
     <t>const uint8_t DISPLAY_INTENSITY[] = {</t>
   </si>
   <si>
-    <t>Scrolling example LVGL</t>
-  </si>
-  <si>
     <t>Bedclock_IDF_V12</t>
   </si>
   <si>
@@ -522,6 +494,12 @@
   </si>
   <si>
     <t>*/</t>
+  </si>
+  <si>
+    <t>First working version with graphics layout</t>
+  </si>
+  <si>
+    <t>Different projects were created to port the Arduino version to ESP-IDF:</t>
   </si>
 </sst>
 </file>
@@ -531,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,11 +541,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cascadia Mono Light"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
@@ -616,8 +589,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2325,11 +2298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12:N23"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2339,330 +2312,324 @@
     <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="3.265625" customWidth="1"/>
     <col min="5" max="5" width="2.59765625" customWidth="1"/>
+    <col min="6" max="6" width="58.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
-        <f>AVERAGE(A4:A13)</f>
+        <f>AVERAGE(A5:A14)</f>
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <f>AVERAGE(A4:A1048576)</f>
+        <f>AVERAGE(A5:A1048576)</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F16" si="0">"    "&amp;C5&amp;" : "&amp;B5</f>
+        <v xml:space="preserve">    Bedclock_IDF_V01 : Test WS2812 led chain</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G16" si="1">"  * `"&amp;C5&amp;"` : "&amp;B5</f>
+        <v xml:space="preserve">  * `Bedclock_IDF_V01` : Test WS2812 led chain</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V02` : Test SSD1306 OLED screen</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V03 : Test capacitive touch sensors</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V03` : Test capacitive touch sensors</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V04 : Test WiFi</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V04` : Test WiFi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V05 : Test time sync with timeserver</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V05` : Test time sync with timeserver</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V06` : Port timer object using esp_timer_get_time() / 1000;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V07 : Test FreeRTOS</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V07` : Test FreeRTOS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V08 : Implement multiple parallel processes</v>
       </c>
       <c r="G12" t="str">
-        <f>"    "&amp;C4&amp;" : "&amp;B4</f>
-        <v xml:space="preserve">    Bedclock_IDF_V01 : Test WS2812 led chain</v>
-      </c>
-      <c r="N12" t="str">
-        <f>"  * `"&amp;C4&amp;"` : "&amp;B4</f>
-        <v xml:space="preserve">  * `Bedclock_IDF_V01` : Test WS2812 led chain</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V08` : Implement multiple parallel processes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G24" si="0">"    "&amp;C5&amp;" : "&amp;B5</f>
-        <v xml:space="preserve">    Bedclock_IDF_V02 : Test SSD1306 OLED screen</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" ref="N13:N23" si="1">"  * `"&amp;C5&amp;"` : "&amp;B5</f>
-        <v xml:space="preserve">  * `Bedclock_IDF_V02` : Test SSD1306 OLED screen</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V09` : Internal Espressif SSD1306 driver including LVGL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V10 : First working version of application</v>
       </c>
       <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  * `Bedclock_IDF_V10` : First working version of application</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V03 : Test capacitive touch sensors</v>
-      </c>
-      <c r="N14" t="str">
+        <v xml:space="preserve">    Bedclock_IDF_V11 : First working version of pixel buffer</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V03` : Test capacitive touch sensors</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V04 : Test WiFi</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V04` : Test WiFi</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  * `Bedclock_IDF_V11` : First working version of pixel buffer</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    Bedclock_IDF_V12 : First working version with graphics layout</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V05 : Test time sync with timeserver</v>
-      </c>
-      <c r="N16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V05` : Test time sync with timeserver</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">  * `Bedclock_IDF_V12` : First working version with graphics layout</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V06 : Port timer object using esp_timer_get_time() / 1000;</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V06` : Port timer object using esp_timer_get_time() / 1000;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V07 : Test FreeRTOS</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V07` : Test FreeRTOS</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V08 : Implement multiple parallel processes</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V08` : Implement multiple parallel processes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V09 : Internal Espressif SSD1306 driver including LVGL</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V09` : Internal Espressif SSD1306 driver including LVGL</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V10 : First working version of application</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V10` : First working version of application</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    Bedclock_IDF_V11 : First working version of pixel buffer</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V11` : First working version of pixel buffer</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="G23" t="str">
-        <f>"    "&amp;C15&amp;" : "&amp;B15</f>
-        <v xml:space="preserve">    Bedclock_IDF_V12 : Scrolling example LVGL</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  * `Bedclock_IDF_V12` : Scrolling example LVGL</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="G24" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2690,7 +2657,7 @@
         <v xml:space="preserve">0.03, </v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" t="str">
         <f>A1&amp;"      "&amp;F1</f>
@@ -2707,7 +2674,7 @@
         <v xml:space="preserve">0.06, </v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H2" t="str">
         <f>A2&amp;"      "&amp;F2</f>
@@ -2720,7 +2687,7 @@
         <v xml:space="preserve">0.16, </v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H3" t="str">
         <f>A3&amp;"      "&amp;F3</f>
@@ -2733,7 +2700,7 @@
         <v xml:space="preserve">0.40, </v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" t="str">
         <f>A4&amp;"      "&amp;F4</f>
@@ -2746,7 +2713,7 @@
         <v xml:space="preserve">1.00, </v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
         <f>A5&amp;"      "&amp;F5</f>
@@ -2762,7 +2729,7 @@
         <v xml:space="preserve">5*60*1000, </v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D11" si="0">A7&amp;"      "&amp;B7</f>
@@ -2781,7 +2748,7 @@
         <v xml:space="preserve">7*60*1000, </v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2798,7 +2765,7 @@
         <v xml:space="preserve">10*60*1000, </v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2815,7 +2782,7 @@
         <v xml:space="preserve">14*60*1000, </v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2832,7 +2799,7 @@
         <v xml:space="preserve">20*60*1000, </v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2845,25 +2812,25 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -2880,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" t="str">
         <f>"  { .r = "&amp;TEXT(B14,"0.000")&amp;",  .g = "&amp;TEXT(C14,"0.000")&amp;",  .b = "&amp;TEXT(D14,"0.000")&amp;" },    // "&amp;TEXT(A14,"0")&amp;" = "&amp;E14</f>
@@ -2922,7 +2889,7 @@
         <v>0.67026194144838214</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F15" t="str">
         <f>"  { .r = "&amp;TEXT(B15,"0.000")&amp;",  .g = "&amp;TEXT(C15,"0.000")&amp;",  .b = "&amp;TEXT(D15,"0.000")&amp;" },    // "&amp;TEXT(A15,"0")&amp;" = "&amp;E15</f>
@@ -2966,7 +2933,7 @@
         <v>0.72864321608040206</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F16" t="str">
         <f>"  { .r = "&amp;TEXT(B16,"0.000")&amp;",  .g = "&amp;TEXT(C16,"0.000")&amp;",  .b = "&amp;TEXT(D16,"0.000")&amp;" },    // "&amp;TEXT(A16,"0")&amp;" = "&amp;E16</f>
@@ -3008,7 +2975,7 @@
         <v>0.75</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F17" t="str">
         <f>"  { .r = "&amp;TEXT(B17,"0.000")&amp;",  .g = "&amp;TEXT(C17,"0.000")&amp;",  .b = "&amp;TEXT(D17,"0.000")&amp;" },    // "&amp;TEXT(A17,"0")&amp;" = "&amp;E17</f>
@@ -3038,7 +3005,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
@@ -3062,7 +3029,7 @@
         <v>2.5148667298248704</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L20">
         <f>L19/$O$19</f>
@@ -3143,12 +3110,12 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -3156,7 +3123,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3168,7 +3135,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3176,7 +3143,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -3184,15 +3151,15 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B36" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,B14:B17)</f>
@@ -3209,7 +3176,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,C14:C17)</f>
@@ -3226,7 +3193,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,D14:D17)</f>
@@ -3723,7 +3690,7 @@
         <v>15.967105496833609</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -3778,7 +3745,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F68" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3807,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>16</v>
@@ -3815,13 +3782,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -3835,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -3849,7 +3816,7 @@
         <v>-32</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -3863,7 +3830,7 @@
         <v>-56</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -3880,7 +3847,7 @@
         <v>-72</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -3897,7 +3864,7 @@
         <v>-88</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -3914,7 +3881,7 @@
         <v>-104</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -4037,7 +4004,7 @@
         <v>5120</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -4046,69 +4013,69 @@
         <v>640</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <f>B20*B21</f>
         <v>4096</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <f>B22/8</f>
         <v>512</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>400000</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B26" s="10">
         <v>0.8</v>
@@ -4116,14 +4083,14 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <f>B22/(B25*B26)</f>
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -4132,7 +4099,7 @@
         <v>12.8</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4154,7 +4121,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.45">
@@ -4224,7 +4191,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4820,22 +4787,22 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S1">
         <v>671</v>
@@ -4861,18 +4828,18 @@
         <v>671</v>
       </c>
       <c r="AA1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f>SEARCH(C$1,$A2)</f>
@@ -4961,7 +4928,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C39" si="5">SEARCH(C$1,$A3)</f>
@@ -5050,7 +5017,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <f t="shared" si="5"/>
@@ -5139,7 +5106,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <f t="shared" si="5"/>
@@ -5216,7 +5183,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -5297,7 +5264,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
@@ -5378,7 +5345,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
@@ -5459,7 +5426,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -5536,7 +5503,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -5613,7 +5580,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -5690,7 +5657,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -5767,7 +5734,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -5844,7 +5811,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -5921,7 +5888,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -5998,7 +5965,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -6075,7 +6042,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -6152,7 +6119,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -6229,7 +6196,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -6306,7 +6273,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -6383,7 +6350,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -6460,7 +6427,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -6537,7 +6504,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
@@ -6614,7 +6581,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
@@ -6691,7 +6658,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
@@ -6768,7 +6735,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
@@ -6845,7 +6812,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
@@ -6922,7 +6889,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
@@ -6999,7 +6966,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
@@ -7076,7 +7043,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
@@ -7153,7 +7120,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
@@ -7230,7 +7197,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
@@ -7307,7 +7274,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
@@ -7384,7 +7351,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
@@ -7461,7 +7428,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
@@ -7538,7 +7505,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
@@ -7615,7 +7582,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
@@ -7692,7 +7659,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
@@ -7769,7 +7736,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
@@ -8688,42 +8655,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D3">
         <f>HEX2DEC(C3)</f>
         <v>36864</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <f>HEX2DEC(F3)</f>
@@ -8732,17 +8699,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <f>HEX2DEC(C4)</f>
         <v>57344</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <f>HEX2DEC(F4)</f>
@@ -8751,17 +8718,17 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <f>HEX2DEC(C5)</f>
         <v>65536</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <f>HEX2DEC(F5)</f>
@@ -8770,17 +8737,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <f>HEX2DEC(C6)</f>
         <v>4128768</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <f>HEX2DEC(F6)</f>

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3158B7-F326-4442-8AB8-C700573E7B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50725FD1-EAE4-4909-BD42-631CDF249114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>Different projects were created to port the Arduino version to ESP-IDF:</t>
+  </si>
+  <si>
+    <t>|---|---|</t>
+  </si>
+  <si>
+    <t>"| Directory | Purpose |</t>
   </si>
 </sst>
 </file>
@@ -2298,11 +2304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2316,7 +2322,7 @@
     <col min="7" max="7" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2">
         <f>AVERAGE(A5:A14)</f>
         <v>1</v>
@@ -2325,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <f>AVERAGE(A5:A1048576)</f>
         <v>0.61111111111111116</v>
@@ -2334,21 +2340,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="F3" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" t="s">
         <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2367,8 +2379,12 @@
         <f t="shared" ref="G5:G16" si="1">"  * `"&amp;C5&amp;"` : "&amp;B5</f>
         <v xml:space="preserve">  * `Bedclock_IDF_V01` : Test WS2812 led chain</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="str">
+        <f>"| `"&amp;C5&amp;"` | "&amp;B5&amp;" |"</f>
+        <v>| `Bedclock_IDF_V01` | Test WS2812 led chain |</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2387,8 +2403,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V02` : Test SSD1306 OLED screen</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H16" si="2">"| `"&amp;C6&amp;"` | "&amp;B6&amp;" |"</f>
+        <v>| `Bedclock_IDF_V02` | Test SSD1306 OLED screen |</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2407,8 +2427,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V03` : Test capacitive touch sensors</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V03` | Test capacitive touch sensors |</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2427,8 +2451,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V04` : Test WiFi</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V04` | Test WiFi |</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2447,8 +2475,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V05` : Test time sync with timeserver</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V05` | Test time sync with timeserver |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2466,8 +2498,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V06` : Port timer object using esp_timer_get_time() / 1000;</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V06` | Port timer object using esp_timer_get_time() / 1000; |</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2485,8 +2521,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V07` : Test FreeRTOS</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V07` | Test FreeRTOS |</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2504,8 +2544,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V08` : Implement multiple parallel processes</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V08` | Implement multiple parallel processes |</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2523,8 +2567,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V09` : Internal Espressif SSD1306 driver including LVGL</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V09` | Internal Espressif SSD1306 driver including LVGL |</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2542,8 +2590,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V10` : First working version of application</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V10` | First working version of application |</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2561,8 +2613,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V11` : First working version of pixel buffer</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V11` | First working version of pixel buffer |</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2579,6 +2635,10 @@
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">  * `Bedclock_IDF_V12` : First working version with graphics layout</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>| `Bedclock_IDF_V12` | First working version with graphics layout |</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">

--- a/04_Software/Porting to ESP-IDF.xlsx
+++ b/04_Software/Porting to ESP-IDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henkj\Documents\GitHub\BedClock\04_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50725FD1-EAE4-4909-BD42-631CDF249114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F85A8-8211-408F-93AC-77B74AA6EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{877FF0B8-2AAA-4A03-B534-DDBA6ED9C717}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="152">
   <si>
     <t>Test WS2812 led chain</t>
   </si>
@@ -424,15 +424,6 @@
     <t xml:space="preserve">const led_color_t LED_COLORS[] = { </t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -506,14 +497,28 @@
   </si>
   <si>
     <t>"| Directory | Purpose |</t>
+  </si>
+  <si>
+    <t>R%</t>
+  </si>
+  <si>
+    <t>G%</t>
+  </si>
+  <si>
+    <t>B%</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General&quot; K&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -584,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -604,6 +609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,9 +2313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3FDF8-1B80-46E7-8A6B-8969C0129D64}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2343,21 +2350,21 @@
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" t="s">
-        <v>148</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -2577,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
@@ -2600,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -2623,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2649,7 +2656,7 @@
         <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2700,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F3A0C-BCE4-45A2-918D-4AA29D9B0FCD}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2801,6 +2808,10 @@
       <c r="G7">
         <v>1.4142136085596386</v>
       </c>
+      <c r="I7" t="str">
+        <f>TEXT(F7,"0")&amp;" min"</f>
+        <v>5 min</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
@@ -2818,6 +2829,10 @@
         <f>F7*$G$7</f>
         <v>7.0710680427981929</v>
       </c>
+      <c r="I8" t="str">
+        <f>I7&amp;", "&amp;TEXT(F8,"0")&amp;" min"</f>
+        <v>5 min, 7 min</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
@@ -2835,6 +2850,10 @@
         <f t="shared" ref="F9:F11" si="1">F8*$G$7</f>
         <v>10.000000653176373</v>
       </c>
+      <c r="I9" t="str">
+        <f>I8&amp;", "&amp;TEXT(F9,"0")&amp;" min"</f>
+        <v>5 min, 7 min, 10 min</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
@@ -2852,6 +2871,10 @@
         <f t="shared" si="1"/>
         <v>14.142137009327302</v>
       </c>
+      <c r="I10" t="str">
+        <f>I9&amp;", "&amp;TEXT(F10,"0")&amp;" min"</f>
+        <v>5 min, 7 min, 10 min, 14 min</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
@@ -2869,28 +2892,44 @@
         <f t="shared" si="1"/>
         <v>20.000002612705579</v>
       </c>
+      <c r="I11" t="str">
+        <f>I10&amp;", "&amp;TEXT(F11,"0")&amp;" min"</f>
+        <v>5 min, 7 min, 10 min, 14 min, 20 min</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>122</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s">
-        <v>137</v>
+      <c r="N13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -2898,41 +2937,47 @@
         <v>0</v>
       </c>
       <c r="B14" s="11">
-        <v>1</v>
+        <f>LOOKUP($E14,$L$14:$L$20,P$14:P$20)</f>
+        <v>1.0079051383399209</v>
       </c>
       <c r="C14" s="11">
-        <v>1</v>
+        <f t="shared" ref="C14:C17" si="2">LOOKUP($E14,$L$14:$L$20,Q$14:Q$20)</f>
+        <v>1.0039525691699605</v>
       </c>
       <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
+        <f t="shared" ref="D14:D17" si="3">LOOKUP($E14,$L$14:$L$20,R$14:R$20)</f>
+        <v>0.98814229249011865</v>
+      </c>
+      <c r="E14">
+        <v>6500</v>
       </c>
       <c r="F14" t="str">
-        <f>"  { .r = "&amp;TEXT(B14,"0.000")&amp;",  .g = "&amp;TEXT(C14,"0.000")&amp;",  .b = "&amp;TEXT(D14,"0.000")&amp;" },    // "&amp;TEXT(A14,"0")&amp;" = "&amp;E14</f>
-        <v xml:space="preserve">  { .r = 1.000,  .g = 1.000,  .b = 1.000 },    // 0 = White</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+        <f>"  { .r = "&amp;TEXT(B14,"0.000")&amp;",  .g = "&amp;TEXT(C14,"0.000")&amp;",  .b = "&amp;TEXT(D14,"0.000")&amp;" },    // "&amp;TEXT(A14,"0")&amp;" = "&amp;E14&amp;" K"</f>
+        <v xml:space="preserve">  { .r = 1.008,  .g = 1.004,  .b = 0.988 },    // 0 = 6500 K</v>
+      </c>
+      <c r="L14" s="15">
+        <v>3000</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="O14">
+        <v>110</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:R17" si="2">L14/AVERAGE($L14:$N14)</f>
-        <v>1</v>
+        <f>M14/SUM($M14:$O14)*3</f>
+        <v>1.411439114391144</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>N14/SUM($M14:$O14)*3</f>
+        <v>0.97970479704797053</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>O14/SUM($M14:$O14)*3</f>
+        <v>0.60885608856088558</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -2940,43 +2985,47 @@
         <v>1</v>
       </c>
       <c r="B15" s="11">
-        <v>1.1787365177195686</v>
+        <f t="shared" ref="B15:B17" si="4">LOOKUP($E15,$L$14:$L$20,P$14:P$20)</f>
+        <v>1.1103047895500726</v>
       </c>
       <c r="C15" s="11">
-        <v>1.1510015408320493</v>
+        <f t="shared" si="2"/>
+        <v>0.99274310595065318</v>
       </c>
       <c r="D15" s="11">
-        <v>0.67026194144838214</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>0.89695210449927432</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
       </c>
       <c r="F15" t="str">
-        <f>"  { .r = "&amp;TEXT(B15,"0.000")&amp;",  .g = "&amp;TEXT(C15,"0.000")&amp;",  .b = "&amp;TEXT(D15,"0.000")&amp;" },    // "&amp;TEXT(A15,"0")&amp;" = "&amp;E15</f>
-        <v xml:space="preserve">  { .r = 1.179,  .g = 1.151,  .b = 0.670 },    // 1 = Yellow</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+        <f t="shared" ref="F15:F17" si="5">"  { .r = "&amp;TEXT(B15,"0.000")&amp;",  .g = "&amp;TEXT(C15,"0.000")&amp;",  .b = "&amp;TEXT(D15,"0.000")&amp;" },    // "&amp;TEXT(A15,"0")&amp;" = "&amp;E15&amp;" K"</f>
+        <v xml:space="preserve">  { .r = 1.110,  .g = 0.993,  .b = 0.897 },    // 1 = 5000 K</v>
+      </c>
+      <c r="L15" s="15">
+        <v>4000</v>
       </c>
       <c r="M15">
-        <f>249/255</f>
-        <v>0.97647058823529409</v>
+        <v>255</v>
       </c>
       <c r="N15">
-        <f>145/255</f>
-        <v>0.56862745098039214</v>
+        <v>206</v>
+      </c>
+      <c r="O15">
+        <v>166</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1.1787365177195686</v>
+        <f>M15/SUM($M15:$O15)*3</f>
+        <v>1.2200956937799043</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>1.1510015408320493</v>
+        <f>N15/SUM($M15:$O15)*3</f>
+        <v>0.9856459330143541</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
-        <v>0.67026194144838214</v>
+        <f>O15/SUM($M15:$O15)*3</f>
+        <v>0.79425837320574155</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -2984,41 +3033,47 @@
         <v>2</v>
       </c>
       <c r="B16" s="11">
-        <v>1.2814070351758795</v>
+        <f t="shared" si="4"/>
+        <v>1.2200956937799043</v>
       </c>
       <c r="C16" s="11">
-        <v>0.98994974874371855</v>
+        <f t="shared" si="2"/>
+        <v>0.9856459330143541</v>
       </c>
       <c r="D16" s="11">
-        <v>0.72864321608040206</v>
-      </c>
-      <c r="E16" t="s">
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>0.79425837320574155</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
       </c>
       <c r="F16" t="str">
-        <f>"  { .r = "&amp;TEXT(B16,"0.000")&amp;",  .g = "&amp;TEXT(C16,"0.000")&amp;",  .b = "&amp;TEXT(D16,"0.000")&amp;" },    // "&amp;TEXT(A16,"0")&amp;" = "&amp;E16</f>
-        <v xml:space="preserve">  { .r = 1.281,  .g = 0.990,  .b = 0.729 },    // 2 = Orange</v>
-      </c>
-      <c r="L16">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  { .r = 1.220,  .g = 0.986,  .b = 0.794 },    // 2 = 4000 K</v>
+      </c>
+      <c r="L16" s="15">
+        <v>5000</v>
+      </c>
+      <c r="M16">
         <v>255</v>
       </c>
-      <c r="M16">
-        <v>197</v>
-      </c>
       <c r="N16">
-        <v>145</v>
+        <v>228</v>
+      </c>
+      <c r="O16">
+        <v>206</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
-        <v>1.2814070351758795</v>
+        <f>M16/SUM($M16:$O16)*3</f>
+        <v>1.1103047895500726</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>0.98994974874371855</v>
+        <f>N16/SUM($M16:$O16)*3</f>
+        <v>0.99274310595065318</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
-        <v>0.72864321608040206</v>
+        <f>O16/SUM($M16:$O16)*3</f>
+        <v>0.89695210449927432</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
@@ -3026,62 +3081,102 @@
         <v>3</v>
       </c>
       <c r="B17" s="11">
-        <v>1.5</v>
+        <f t="shared" si="4"/>
+        <v>1.411439114391144</v>
       </c>
       <c r="C17" s="11">
-        <v>0.75</v>
+        <f t="shared" si="2"/>
+        <v>0.97970479704797053</v>
       </c>
       <c r="D17" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>0.60885608856088558</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
       </c>
       <c r="F17" t="str">
-        <f>"  { .r = "&amp;TEXT(B17,"0.000")&amp;",  .g = "&amp;TEXT(C17,"0.000")&amp;",  .b = "&amp;TEXT(D17,"0.000")&amp;" },    // "&amp;TEXT(A17,"0")&amp;" = "&amp;E17</f>
-        <v xml:space="preserve">  { .r = 1.500,  .g = 0.750,  .b = 0.750 },    // 3 = Red</v>
-      </c>
-      <c r="L17">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">  { .r = 1.411,  .g = 0.980,  .b = 0.609 },    // 3 = 3000 K</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5500</v>
+      </c>
+      <c r="M17">
         <v>255</v>
       </c>
-      <c r="M17">
-        <v>85</v>
-      </c>
       <c r="N17">
-        <v>85</v>
+        <v>237</v>
+      </c>
+      <c r="O17">
+        <v>222</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
+        <f>M17/SUM($M17:$O17)*3</f>
+        <v>1.0714285714285714</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f>N17/SUM($M17:$O17)*3</f>
+        <v>0.99579831932773111</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f>O17/SUM($M17:$O17)*3</f>
+        <v>0.9327731092436975</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
         <v>121</v>
       </c>
+      <c r="L18" s="15">
+        <v>6000</v>
+      </c>
+      <c r="M18">
+        <v>255</v>
+      </c>
+      <c r="N18">
+        <v>246</v>
+      </c>
+      <c r="O18">
+        <v>237</v>
+      </c>
+      <c r="P18">
+        <f>M18/SUM($M18:$O18)*3</f>
+        <v>1.0365853658536586</v>
+      </c>
+      <c r="Q18">
+        <f>N18/SUM($M18:$O18)*3</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>O18/SUM($M18:$O18)*3</f>
+        <v>0.96341463414634154</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="L19">
-        <v>1.5</v>
+      <c r="L19" s="15">
+        <v>6200</v>
       </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>255</v>
       </c>
       <c r="N19">
-        <f>M19</f>
-        <v>0.75</v>
+        <v>249</v>
       </c>
       <c r="O19">
-        <f>AVERAGE(L19:N19)</f>
-        <v>1</v>
+        <v>242</v>
+      </c>
+      <c r="P19">
+        <f>M19/SUM($M19:$O19)*3</f>
+        <v>1.0254691689008042</v>
+      </c>
+      <c r="Q19">
+        <f>N19/SUM($M19:$O19)*3</f>
+        <v>1.0013404825737267</v>
+      </c>
+      <c r="R19">
+        <f>O19/SUM($M19:$O19)*3</f>
+        <v>0.97319034852546915</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
@@ -3089,19 +3184,31 @@
         <v>2.5148667298248704</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20">
-        <f>L19/$O$19</f>
-        <v>1.5</v>
+        <v>125</v>
+      </c>
+      <c r="L20" s="15">
+        <v>6500</v>
       </c>
       <c r="M20">
-        <f>M19/$O$19</f>
-        <v>0.75</v>
+        <v>255</v>
       </c>
       <c r="N20">
-        <f>N19/$O$19</f>
-        <v>0.75</v>
+        <v>254</v>
+      </c>
+      <c r="O20">
+        <v>250</v>
+      </c>
+      <c r="P20">
+        <f>M20/SUM($M20:$O20)*3</f>
+        <v>1.0079051383399209</v>
+      </c>
+      <c r="Q20">
+        <f>N20/SUM($M20:$O20)*3</f>
+        <v>1.0039525691699605</v>
+      </c>
+      <c r="R20">
+        <f>O20/SUM($M20:$O20)*3</f>
+        <v>0.98814229249011865</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
@@ -3115,6 +3222,10 @@
         <f>"    "&amp;TEXT(B21,"0.000")&amp;",  // .led_intensity = "&amp;TEXT(A21,"0")</f>
         <v xml:space="preserve">    0.025,  // .led_intensity = 0</v>
       </c>
+      <c r="J21" t="str">
+        <f>TEXT(100*B21,"0.0")&amp;"%"</f>
+        <v>2.5%</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
@@ -3125,8 +3236,16 @@
         <v>6.2871668245621765E-2</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F25" si="3">"    "&amp;TEXT(B22,"0.000")&amp;",  // .led_intensity = "&amp;TEXT(A22,"0")</f>
+        <f t="shared" ref="F22:F25" si="6">"    "&amp;TEXT(B22,"0.000")&amp;",  // .led_intensity = "&amp;TEXT(A22,"0")</f>
         <v xml:space="preserve">    0.063,  // .led_intensity = 1</v>
+      </c>
+      <c r="J22" t="str">
+        <f>J21&amp;", "&amp;TEXT(100*B22,"0")&amp;"%"</f>
+        <v>2.5%, 6%</v>
+      </c>
+      <c r="N22" t="str">
+        <f>E14&amp;" K"</f>
+        <v>6500 K</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
@@ -3138,8 +3257,16 @@
         <v>0.15811386671950095</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">    0.158,  // .led_intensity = 2</v>
+      </c>
+      <c r="J23" t="str">
+        <f>J22&amp;", "&amp;TEXT(100*B23,"0")&amp;"%"</f>
+        <v>2.5%, 6%, 16%</v>
+      </c>
+      <c r="N23" t="str">
+        <f>N22&amp;", "&amp;TEXT(E15,"0")&amp;" K"</f>
+        <v>6500 K, 5000 K</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
@@ -3151,8 +3278,16 @@
         <v>0.39763530293683674</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">    0.398,  // .led_intensity = 3</v>
+      </c>
+      <c r="J24" t="str">
+        <f>J23&amp;", "&amp;TEXT(100*B24,"0")&amp;"%"</f>
+        <v>2.5%, 6%, 16%, 40%</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" ref="N24:N25" si="7">N23&amp;", "&amp;TEXT(E16,"0")&amp;" K"</f>
+        <v>6500 K, 5000 K, 4000 K</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
@@ -3164,8 +3299,16 @@
         <v>0.9999997939596843</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">    1.000,  // .led_intensity = 4</v>
+      </c>
+      <c r="J25" t="str">
+        <f>J24&amp;", "&amp;TEXT(100*B25,"0")&amp;"%"</f>
+        <v>2.5%, 6%, 16%, 40%, 100%</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v>6500 K, 5000 K, 4000 K, 3000 K</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
@@ -3175,7 +3318,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -3183,7 +3326,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3195,7 +3338,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3203,7 +3346,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -3211,61 +3354,61 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,B14:B17)</f>
-        <v>1.2814070351758795</v>
+        <v>1.2200956937799043</v>
       </c>
       <c r="C36" s="12">
         <f>$B$28*$C$30*B36</f>
-        <v>8.1043288469291959</v>
+        <v>7.7165619164541139</v>
       </c>
       <c r="D36" s="12">
         <f>C36/$B$34</f>
-        <v>0.40521644234645982</v>
+        <v>0.38582809582270572</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B37" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,C14:C17)</f>
-        <v>0.98994974874371855</v>
+        <v>0.9856459330143541</v>
       </c>
       <c r="C37" s="12">
         <f>$B$28*$C$30*B37</f>
-        <v>6.260991305274711</v>
+        <v>6.2337715874099899</v>
       </c>
       <c r="D37" s="12">
         <f>C37/$B$34</f>
-        <v>0.31304956526373556</v>
+        <v>0.31168857937049949</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" s="12">
         <f>LOOKUP($B$32,$A$14:$A$17,D14:D17)</f>
-        <v>0.72864321608040206</v>
+        <v>0.79425837320574155</v>
       </c>
       <c r="C38" s="12">
         <f>$B$28*$C$30*B38</f>
-        <v>4.6083438541362094</v>
+        <v>5.0233305024760107</v>
       </c>
       <c r="D38" s="12">
         <f>C38/$B$34</f>
-        <v>0.23041719270681046</v>
+        <v>0.25116652512380055</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -3286,19 +3429,19 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f>A41&amp;", "&amp;TEXT(B42,"0.00")</f>
-        <v>0.00, 0.41</v>
+        <v>0.00, 0.39</v>
       </c>
       <c r="B42" s="12">
         <f>B41+$D$36</f>
-        <v>0.40521644234645982</v>
+        <v>0.38582809582270572</v>
       </c>
       <c r="C42" s="12">
         <f>C41+$D$37</f>
-        <v>0.31304956526373556</v>
+        <v>0.31168857937049949</v>
       </c>
       <c r="D42" s="12">
         <f>D41+$D$38</f>
-        <v>0.23041719270681046</v>
+        <v>0.25116652512380055</v>
       </c>
       <c r="F42" s="13">
         <f>INT(B42)</f>
@@ -3315,428 +3458,428 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
-        <f t="shared" ref="A43:A52" si="4">A42&amp;", "&amp;TEXT(B43,"0.00")</f>
-        <v>0.00, 0.41, 0.81</v>
+        <f t="shared" ref="A43:A52" si="8">A42&amp;", "&amp;TEXT(B43,"0.00")</f>
+        <v>0.00, 0.39, 0.77</v>
       </c>
       <c r="B43" s="12">
-        <f t="shared" ref="B43:B60" si="5">B42+$D$36</f>
-        <v>0.81043288469291963</v>
+        <f t="shared" ref="B43:B60" si="9">B42+$D$36</f>
+        <v>0.77165619164541144</v>
       </c>
       <c r="C43" s="12">
-        <f t="shared" ref="C43:C60" si="6">C42+$D$37</f>
-        <v>0.62609913052747113</v>
+        <f t="shared" ref="C43:C60" si="10">C42+$D$37</f>
+        <v>0.62337715874099897</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" ref="D43:D60" si="7">D42+$D$38</f>
-        <v>0.46083438541362093</v>
+        <f t="shared" ref="D43:D60" si="11">D42+$D$38</f>
+        <v>0.50233305024760111</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" ref="F43:F52" si="8">INT(B43)</f>
+        <f t="shared" ref="F43:F52" si="12">INT(B43)</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G52" si="9">INT(16*MOD(B43,1))</f>
+        <f t="shared" ref="G43:G52" si="13">INT(16*MOD(B43,1))</f>
         <v>12</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I52" si="10">F43+G43/16</f>
+        <f t="shared" ref="I43:I52" si="14">F43+G43/16</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16</v>
       </c>
       <c r="B44" s="12">
-        <f t="shared" si="5"/>
-        <v>1.2156493270393796</v>
+        <f t="shared" si="9"/>
+        <v>1.157484287468117</v>
       </c>
       <c r="C44" s="12">
-        <f t="shared" si="6"/>
-        <v>0.93914869579120674</v>
+        <f t="shared" si="10"/>
+        <v>0.9350657381114984</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" si="7"/>
-        <v>0.69125157812043136</v>
+        <f t="shared" si="11"/>
+        <v>0.75349957537140166</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
-        <v>1.1875</v>
+        <f t="shared" si="14"/>
+        <v>1.125</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54</v>
       </c>
       <c r="B45" s="12">
-        <f t="shared" si="5"/>
-        <v>1.6208657693858393</v>
+        <f t="shared" si="9"/>
+        <v>1.5433123832908229</v>
       </c>
       <c r="C45" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2521982610549423</v>
+        <f t="shared" si="10"/>
+        <v>1.2467543174819979</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" si="7"/>
-        <v>0.92166877082724186</v>
+        <f t="shared" si="11"/>
+        <v>1.0046661004952022</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
-        <v>1.5625</v>
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93</v>
       </c>
       <c r="B46" s="12">
-        <f t="shared" si="5"/>
-        <v>2.026082211732299</v>
+        <f t="shared" si="9"/>
+        <v>1.9291404791135287</v>
       </c>
       <c r="C46" s="12">
-        <f t="shared" si="6"/>
-        <v>1.5652478263186778</v>
+        <f t="shared" si="10"/>
+        <v>1.5584428968524975</v>
       </c>
       <c r="D46" s="12">
-        <f t="shared" si="7"/>
-        <v>1.1520859635340523</v>
+        <f t="shared" si="11"/>
+        <v>1.2558326256190027</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G46">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1.875</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" si="5"/>
-        <v>2.4312986540787587</v>
+        <f t="shared" si="9"/>
+        <v>2.3149685749362345</v>
       </c>
       <c r="C47" s="12">
-        <f t="shared" si="6"/>
-        <v>1.8782973915824133</v>
+        <f t="shared" si="10"/>
+        <v>1.870131476222997</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="7"/>
-        <v>1.3825031562408627</v>
+        <f t="shared" si="11"/>
+        <v>1.5069991507428031</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
-        <v>2.375</v>
+        <f t="shared" si="14"/>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31, 2.70</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="5"/>
-        <v>2.8365150964252184</v>
+        <f t="shared" si="9"/>
+        <v>2.7007966707589404</v>
       </c>
       <c r="C48" s="12">
-        <f t="shared" si="6"/>
-        <v>2.1913469568461488</v>
+        <f t="shared" si="10"/>
+        <v>2.1818200555934966</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="7"/>
-        <v>1.6129203489476731</v>
+        <f t="shared" si="11"/>
+        <v>1.7581656758666036</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
-        <v>2.8125</v>
+        <f t="shared" si="14"/>
+        <v>2.6875</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31, 2.70, 3.09</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="5"/>
-        <v>3.2417315387716781</v>
+        <f t="shared" si="9"/>
+        <v>3.0866247665816462</v>
       </c>
       <c r="C49" s="12">
-        <f t="shared" si="6"/>
-        <v>2.5043965221098845</v>
+        <f t="shared" si="10"/>
+        <v>2.4935086349639959</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="7"/>
-        <v>1.8433375416544835</v>
+        <f t="shared" si="11"/>
+        <v>2.009332200990404</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
-        <v>3.1875</v>
+        <f t="shared" si="14"/>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31, 2.70, 3.09, 3.47</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="5"/>
-        <v>3.6469479811181378</v>
+        <f t="shared" si="9"/>
+        <v>3.472452862404352</v>
       </c>
       <c r="C50" s="12">
-        <f t="shared" si="6"/>
-        <v>2.8174460873736202</v>
+        <f t="shared" si="10"/>
+        <v>2.8051972143344952</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="7"/>
-        <v>2.0737547343612941</v>
+        <f t="shared" si="11"/>
+        <v>2.2604987261142044</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
-        <v>3.625</v>
+        <f t="shared" si="14"/>
+        <v>3.4375</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31, 2.70, 3.09, 3.47, 3.86</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="5"/>
-        <v>4.0521644234645979</v>
+        <f t="shared" si="9"/>
+        <v>3.8582809582270579</v>
       </c>
       <c r="C51" s="12">
-        <f t="shared" si="6"/>
-        <v>3.130495652637356</v>
+        <f t="shared" si="10"/>
+        <v>3.1168857937049945</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="7"/>
-        <v>2.3041719270681047</v>
+        <f t="shared" si="11"/>
+        <v>2.5116652512380049</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3.8125</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
-        <f t="shared" si="4"/>
-        <v>0.00, 0.41, 0.81, 1.22, 1.62, 2.03, 2.43, 2.84, 3.24, 3.65, 4.05, 4.46</v>
+        <f t="shared" si="8"/>
+        <v>0.00, 0.39, 0.77, 1.16, 1.54, 1.93, 2.31, 2.70, 3.09, 3.47, 3.86, 4.24</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="5"/>
-        <v>4.4573808658110581</v>
+        <f t="shared" si="9"/>
+        <v>4.2441090540497637</v>
       </c>
       <c r="C52" s="12">
-        <f t="shared" si="6"/>
-        <v>3.4435452179010917</v>
+        <f t="shared" si="10"/>
+        <v>3.4285743730754938</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="7"/>
-        <v>2.5345891197749153</v>
+        <f t="shared" si="11"/>
+        <v>2.7628317763618053</v>
       </c>
       <c r="F52" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="I52">
-        <f t="shared" si="10"/>
-        <v>4.4375</v>
+        <f t="shared" si="14"/>
+        <v>4.1875</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B53" s="12">
-        <f t="shared" si="5"/>
-        <v>4.8625973081575182</v>
+        <f t="shared" si="9"/>
+        <v>4.6299371498724691</v>
       </c>
       <c r="C53" s="12">
-        <f t="shared" si="6"/>
-        <v>3.7565947831648274</v>
+        <f t="shared" si="10"/>
+        <v>3.7402629524459932</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="7"/>
-        <v>2.7650063124817259</v>
+        <f t="shared" si="11"/>
+        <v>3.0139983014856058</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B54" s="12">
-        <f t="shared" si="5"/>
-        <v>5.2678137505039784</v>
+        <f t="shared" si="9"/>
+        <v>5.0157652456951745</v>
       </c>
       <c r="C54" s="12">
-        <f t="shared" si="6"/>
-        <v>4.0696443484285627</v>
+        <f t="shared" si="10"/>
+        <v>4.0519515318164929</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="7"/>
-        <v>2.9954235051885365</v>
+        <f t="shared" si="11"/>
+        <v>3.2651648266094062</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B55" s="12">
-        <f t="shared" si="5"/>
-        <v>5.6730301928504385</v>
+        <f t="shared" si="9"/>
+        <v>5.4015933415178798</v>
       </c>
       <c r="C55" s="12">
-        <f t="shared" si="6"/>
-        <v>4.3826939136922984</v>
+        <f t="shared" si="10"/>
+        <v>4.3636401111869922</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="7"/>
-        <v>3.2258406978953471</v>
+        <f t="shared" si="11"/>
+        <v>3.5163313517332067</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B56" s="12">
-        <f t="shared" si="5"/>
-        <v>6.0782466351968987</v>
+        <f t="shared" si="9"/>
+        <v>5.7874214373405852</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" si="6"/>
-        <v>4.6957434789560342</v>
+        <f t="shared" si="10"/>
+        <v>4.6753286905574916</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="7"/>
-        <v>3.4562578906021577</v>
+        <f t="shared" si="11"/>
+        <v>3.7674978768570071</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B57" s="12">
-        <f t="shared" si="5"/>
-        <v>6.4834630775433588</v>
+        <f t="shared" si="9"/>
+        <v>6.1732495331632906</v>
       </c>
       <c r="C57" s="12">
-        <f t="shared" si="6"/>
-        <v>5.0087930442197699</v>
+        <f t="shared" si="10"/>
+        <v>4.9870172699279909</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="7"/>
-        <v>3.6866750833089683</v>
+        <f t="shared" si="11"/>
+        <v>4.018664401980808</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B58" s="12">
-        <f t="shared" si="5"/>
-        <v>6.888679519889819</v>
+        <f t="shared" si="9"/>
+        <v>6.559077628985996</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" si="6"/>
-        <v>5.3218426094835056</v>
+        <f t="shared" si="10"/>
+        <v>5.2987058492984902</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="7"/>
-        <v>3.9170922760157789</v>
+        <f t="shared" si="11"/>
+        <v>4.2698309271046089</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B59" s="12">
-        <f t="shared" si="5"/>
-        <v>7.2938959622362791</v>
+        <f t="shared" si="9"/>
+        <v>6.9449057248087014</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" si="6"/>
-        <v>5.6348921747472414</v>
+        <f t="shared" si="10"/>
+        <v>5.6103944286689895</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="7"/>
-        <v>4.1475094687225891</v>
+        <f t="shared" si="11"/>
+        <v>4.5209974522284098</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="12">
-        <f t="shared" si="5"/>
-        <v>7.6991124045827393</v>
+        <f t="shared" si="9"/>
+        <v>7.3307338206314068</v>
       </c>
       <c r="C60" s="12">
-        <f t="shared" si="6"/>
-        <v>5.9479417400109771</v>
+        <f t="shared" si="10"/>
+        <v>5.9220830080394888</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="7"/>
-        <v>4.3779266614293997</v>
+        <f t="shared" si="11"/>
+        <v>4.7721639773522107</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="12">
-        <f t="shared" ref="B61" si="11">B60+$D$36</f>
-        <v>8.1043288469291994</v>
+        <f t="shared" ref="B61" si="15">B60+$D$36</f>
+        <v>7.7165619164541122</v>
       </c>
       <c r="C61" s="12">
-        <f t="shared" ref="C61" si="12">C60+$D$37</f>
-        <v>6.2609913052747128</v>
+        <f t="shared" ref="C61" si="16">C60+$D$37</f>
+        <v>6.2337715874099882</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61" si="13">D60+$D$38</f>
-        <v>4.6083438541362103</v>
+        <f t="shared" ref="D61" si="17">D60+$D$38</f>
+        <v>5.0233305024760115</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
@@ -3750,44 +3893,50 @@
         <v>15.967105496833609</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
       <c r="B65" s="13">
-        <f>B66/$B$64</f>
-        <v>1.0002021665610414</v>
+        <v>1</v>
       </c>
       <c r="C65" t="str">
         <f>"0x"&amp;DEC2HEX(B65,2)</f>
         <v>0x01</v>
       </c>
+      <c r="D65" s="16">
+        <f>B65/$B$67</f>
+        <v>3.9215686274509803E-3</v>
+      </c>
       <c r="F65" s="4" t="str">
         <f>"    "&amp;C65&amp;",    // .display_intensity = "&amp;TEXT(A65,"0")</f>
         <v xml:space="preserve">    0x01,    // .display_intensity = 0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" s="13">
-        <f>B67/$B$64</f>
-        <v>15.970333511641689</v>
+        <v>16</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C67" si="14">"0x"&amp;DEC2HEX(B66,2)</f>
-        <v>0x0F</v>
+        <f t="shared" ref="C66:C67" si="18">"0x"&amp;DEC2HEX(B66,2)</f>
+        <v>0x10</v>
+      </c>
+      <c r="D66" s="16">
+        <f>B66/$B$67</f>
+        <v>6.2745098039215685E-2</v>
       </c>
       <c r="F66" s="4" t="str">
-        <f t="shared" ref="F66:F67" si="15">"    "&amp;C66&amp;",    // .display_intensity = "&amp;TEXT(A66,"0")</f>
-        <v xml:space="preserve">    0x0F,    // .display_intensity = 1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F66:F67" si="19">"    "&amp;C66&amp;",    // .display_intensity = "&amp;TEXT(A66,"0")</f>
+        <v xml:space="preserve">    0x10,    // .display_intensity = 1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3795,20 +3944,57 @@
         <v>255</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0xFF</v>
       </c>
+      <c r="D67" s="16">
+        <f>B67/$B$67</f>
+        <v>1</v>
+      </c>
       <c r="F67" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">    0xFF,    // .display_intensity = 2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F68" s="4" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F70" t="str">
+        <f>TEXT(D65,"0.0%")</f>
+        <v>0.4%</v>
+      </c>
+      <c r="G70" t="str">
+        <f>F70</f>
+        <v>0.4%</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F71" t="str">
+        <f>TEXT(D66,"0.0%")</f>
+        <v>6.3%</v>
+      </c>
+      <c r="G71" t="str">
+        <f>G70&amp;", "&amp;F71</f>
+        <v>0.4%, 6.3%</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F72" t="str">
+        <f>TEXT(D67,"0.0%")</f>
+        <v>100.0%</v>
+      </c>
+      <c r="G72" t="str">
+        <f>G71&amp;", "&amp;F72</f>
+        <v>0.4%, 6.3%, 100.0%</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L14:R20">
+    <sortCondition ref="L14:L20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -4181,7 +4367,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.45">
@@ -4251,7 +4437,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
